--- a/input/Financial Statement TSLA/Compiled Income Statement-TSLA.xlsx
+++ b/input/Financial Statement TSLA/Compiled Income Statement-TSLA.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Compiled Statement" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Separately Compiled Statement" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X99"/>
+  <dimension ref="A1:X108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,21 +593,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>automotive sales</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>8534752</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2561881</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3117865</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>6824413</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14636855</v>
+      </c>
+      <c r="G3" t="n">
+        <v>21461268</v>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -628,21 +629,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>revenues</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>6824413</v>
-      </c>
-      <c r="F4" t="n">
-        <v>14636855</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21461268</v>
-      </c>
+          <t>automotive sales</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8534752</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2561881</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3117865</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -1516,314 +1517,314 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>selling, general and administrative</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2476500</v>
-      </c>
-      <c r="C20" t="n">
-        <v>686404</v>
-      </c>
-      <c r="D20" t="n">
-        <v>750759</v>
-      </c>
+          <t>income from operations</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>729876</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2104615</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2834491</v>
-      </c>
-      <c r="H20" t="n">
-        <v>703929</v>
-      </c>
-      <c r="I20" t="n">
-        <v>647261</v>
-      </c>
+        <v>416757</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>596</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2050</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2646</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>627</v>
+        <v>283</v>
       </c>
       <c r="N20" t="n">
-        <v>661</v>
+        <v>327</v>
       </c>
       <c r="O20" t="n">
-        <v>888</v>
+        <v>809</v>
       </c>
       <c r="P20" t="n">
-        <v>2257</v>
+        <v>1185</v>
       </c>
       <c r="Q20" t="n">
-        <v>3145</v>
+        <v>1994</v>
       </c>
       <c r="R20" t="n">
-        <v>1056</v>
+        <v>594</v>
       </c>
       <c r="S20" t="n">
-        <v>973</v>
+        <v>1312</v>
       </c>
       <c r="T20" t="n">
-        <v>994</v>
+        <v>2004</v>
       </c>
       <c r="U20" t="n">
-        <v>3523</v>
+        <v>4519</v>
       </c>
       <c r="V20" t="n">
-        <v>4517</v>
+        <v>6523</v>
       </c>
       <c r="W20" t="n">
-        <v>992</v>
+        <v>3603</v>
       </c>
       <c r="X20" t="n">
-        <v>961</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>restructuring and other</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+          <t>selling, general and administrative</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2476500</v>
+      </c>
+      <c r="C21" t="n">
+        <v>686404</v>
+      </c>
       <c r="D21" t="n">
-        <v>103434</v>
+        <v>750759</v>
       </c>
       <c r="E21" t="n">
-        <v>26184</v>
+        <v>729876</v>
       </c>
       <c r="F21" t="n">
-        <v>109049</v>
+        <v>2104615</v>
       </c>
       <c r="G21" t="n">
-        <v>135233</v>
+        <v>2834491</v>
       </c>
       <c r="H21" t="n">
-        <v>43471</v>
+        <v>703929</v>
       </c>
       <c r="I21" t="n">
-        <v>117345</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>647261</v>
+      </c>
+      <c r="J21" t="n">
+        <v>596</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2050</v>
+      </c>
       <c r="L21" t="n">
-        <v>149</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
+        <v>2646</v>
+      </c>
+      <c r="M21" t="n">
+        <v>627</v>
+      </c>
+      <c r="N21" t="n">
+        <v>661</v>
+      </c>
+      <c r="O21" t="n">
+        <v>888</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2257</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3145</v>
+      </c>
       <c r="R21" t="n">
-        <v>-101</v>
+        <v>1056</v>
       </c>
       <c r="S21" t="n">
-        <v>23</v>
+        <v>973</v>
       </c>
       <c r="T21" t="n">
-        <v>51</v>
+        <v>994</v>
       </c>
       <c r="U21" t="n">
-        <v>-78</v>
+        <v>3523</v>
       </c>
       <c r="V21" t="n">
-        <v>-27</v>
+        <v>4517</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="X21" t="n">
-        <v>142</v>
+        <v>961</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>total operating expenses</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>3854573</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1053500</v>
-      </c>
+          <t>restructuring and other</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>1240322</v>
+        <v>103434</v>
       </c>
       <c r="E22" t="n">
-        <v>1106908</v>
+        <v>26184</v>
       </c>
       <c r="F22" t="n">
-        <v>3323186</v>
+        <v>109049</v>
       </c>
       <c r="G22" t="n">
-        <v>4430094</v>
+        <v>135233</v>
       </c>
       <c r="H22" t="n">
-        <v>1087574</v>
+        <v>43471</v>
       </c>
       <c r="I22" t="n">
-        <v>1088504</v>
-      </c>
-      <c r="J22" t="n">
-        <v>930</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3208</v>
-      </c>
+        <v>117345</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>4138</v>
-      </c>
-      <c r="M22" t="n">
-        <v>951</v>
-      </c>
-      <c r="N22" t="n">
-        <v>940</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1254</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3382</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4636</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>1621</v>
+        <v>-101</v>
       </c>
       <c r="S22" t="n">
-        <v>1572</v>
+        <v>23</v>
       </c>
       <c r="T22" t="n">
-        <v>1656</v>
+        <v>51</v>
       </c>
       <c r="U22" t="n">
-        <v>5427</v>
+        <v>-78</v>
       </c>
       <c r="V22" t="n">
-        <v>7083</v>
+        <v>-27</v>
       </c>
       <c r="W22" t="n">
-        <v>1857</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1770</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>loss from operations</t>
+          <t>total operating expenses</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1632086</v>
+        <v>3854573</v>
       </c>
       <c r="C23" t="n">
-        <v>-596974</v>
+        <v>1053500</v>
       </c>
       <c r="D23" t="n">
-        <v>-621392</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+        <v>1240322</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1106908</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3323186</v>
+      </c>
       <c r="G23" t="n">
-        <v>-388073</v>
+        <v>4430094</v>
       </c>
       <c r="H23" t="n">
-        <v>-521831</v>
+        <v>1087574</v>
       </c>
       <c r="I23" t="n">
-        <v>-167458</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1088504</v>
+      </c>
+      <c r="J23" t="n">
+        <v>930</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3208</v>
+      </c>
       <c r="L23" t="n">
-        <v>-69</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
+        <v>4138</v>
+      </c>
+      <c r="M23" t="n">
+        <v>951</v>
+      </c>
+      <c r="N23" t="n">
+        <v>940</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1254</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3382</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4636</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1621</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1572</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1656</v>
+      </c>
+      <c r="U23" t="n">
+        <v>5427</v>
+      </c>
+      <c r="V23" t="n">
+        <v>7083</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1857</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1770</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>income from operations</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="n">
-        <v>416757</v>
-      </c>
+          <t>loss from operations</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-1632086</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-596974</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-621392</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>261</v>
-      </c>
+      <c r="G24" t="n">
+        <v>-388073</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-521831</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-167458</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>283</v>
-      </c>
-      <c r="N24" t="n">
-        <v>327</v>
-      </c>
-      <c r="O24" t="n">
-        <v>809</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1185</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1994</v>
-      </c>
-      <c r="R24" t="n">
-        <v>594</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1312</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2004</v>
-      </c>
-      <c r="U24" t="n">
-        <v>4519</v>
-      </c>
-      <c r="V24" t="n">
-        <v>6523</v>
-      </c>
-      <c r="W24" t="n">
-        <v>3603</v>
-      </c>
-      <c r="X24" t="n">
-        <v>2464</v>
-      </c>
+      <c r="L24" t="n">
+        <v>-69</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1904,463 +1905,433 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>interest expense</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>-471259</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-149546</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-163582</v>
-      </c>
+          <t>other income , net</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>-175220</v>
+        <v>22876</v>
       </c>
       <c r="F26" t="n">
-        <v>-487851</v>
+        <v>-1010</v>
       </c>
       <c r="G26" t="n">
-        <v>-663071</v>
+        <v>21866</v>
       </c>
       <c r="H26" t="n">
-        <v>-157453</v>
-      </c>
-      <c r="I26" t="n">
-        <v>-171979</v>
-      </c>
-      <c r="J26" t="n">
-        <v>-185</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-500</v>
-      </c>
+        <v>25750</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>-685</v>
-      </c>
-      <c r="M26" t="n">
-        <v>-169</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-170</v>
-      </c>
-      <c r="O26" t="n">
-        <v>-163</v>
-      </c>
-      <c r="P26" t="n">
-        <v>-585</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>-748</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="n">
-        <v>-99</v>
+        <v>28</v>
       </c>
       <c r="S26" t="n">
-        <v>-75</v>
-      </c>
-      <c r="T26" t="n">
-        <v>-126</v>
-      </c>
-      <c r="U26" t="n">
-        <v>-245</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="n">
-        <v>-371</v>
-      </c>
-      <c r="W26" t="n">
-        <v>-61</v>
-      </c>
-      <c r="X26" t="n">
-        <v>-44</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>other income, net</t>
+          <t>interest expense</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-125373</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
+        <v>-471259</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-149546</v>
+      </c>
       <c r="D27" t="n">
-        <v>50911</v>
+        <v>-163582</v>
       </c>
       <c r="E27" t="n">
-        <v>22876</v>
+        <v>-175220</v>
       </c>
       <c r="F27" t="n">
-        <v>-1010</v>
+        <v>-487851</v>
       </c>
       <c r="G27" t="n">
-        <v>21866</v>
+        <v>-663071</v>
       </c>
       <c r="H27" t="n">
-        <v>25750</v>
+        <v>-157453</v>
       </c>
       <c r="I27" t="n">
-        <v>-40756</v>
+        <v>-171979</v>
       </c>
       <c r="J27" t="n">
-        <v>85</v>
+        <v>-185</v>
       </c>
       <c r="K27" t="n">
-        <v>-40</v>
+        <v>-500</v>
       </c>
       <c r="L27" t="n">
-        <v>45</v>
+        <v>-685</v>
       </c>
       <c r="M27" t="n">
-        <v>-54</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>-169</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-170</v>
+      </c>
       <c r="O27" t="n">
-        <v>-97</v>
+        <v>-163</v>
       </c>
       <c r="P27" t="n">
-        <v>-25</v>
+        <v>-585</v>
       </c>
       <c r="Q27" t="n">
-        <v>-122</v>
+        <v>-748</v>
       </c>
       <c r="R27" t="n">
-        <v>28</v>
+        <v>-99</v>
       </c>
       <c r="S27" t="n">
-        <v>45</v>
+        <v>-75</v>
       </c>
       <c r="T27" t="n">
-        <v>-6</v>
+        <v>-126</v>
       </c>
       <c r="U27" t="n">
-        <v>141</v>
+        <v>-245</v>
       </c>
       <c r="V27" t="n">
-        <v>135</v>
+        <v>-371</v>
       </c>
       <c r="W27" t="n">
-        <v>56</v>
+        <v>-61</v>
       </c>
       <c r="X27" t="n">
-        <v>28</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>other expense, net</t>
+          <t>income before income taxes</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="n">
-        <v>-37716</v>
-      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>271320</v>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>176</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>70</v>
+      </c>
       <c r="N28" t="n">
-        <v>-15</v>
-      </c>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
+        <v>150</v>
+      </c>
+      <c r="O28" t="n">
+        <v>555</v>
+      </c>
+      <c r="P28" t="n">
+        <v>599</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1154</v>
+      </c>
+      <c r="R28" t="n">
+        <v>533</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1293</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1882</v>
+      </c>
+      <c r="U28" t="n">
+        <v>4461</v>
+      </c>
+      <c r="V28" t="n">
+        <v>6343</v>
+      </c>
+      <c r="W28" t="n">
+        <v>3626</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2474</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>loss before income taxes</t>
+          <t>other income, net</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2209032</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-779022</v>
-      </c>
+        <v>-125373</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>-728999</v>
+        <v>50911</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="n">
-        <v>-1004745</v>
-      </c>
-      <c r="H29" t="n">
-        <v>-644772</v>
-      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>-369831</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>-40756</v>
+      </c>
+      <c r="J29" t="n">
+        <v>85</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>-665</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>-54</v>
+      </c>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
+      <c r="O29" t="n">
+        <v>-97</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-122</v>
+      </c>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
+      <c r="T29" t="n">
+        <v>-6</v>
+      </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
+      <c r="W29" t="n">
+        <v>56</v>
+      </c>
+      <c r="X29" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>income before income taxes</t>
+          <t>other expense, net</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>-37716</v>
+      </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="n">
-        <v>271320</v>
-      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>176</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>70</v>
-      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>150</v>
-      </c>
-      <c r="O30" t="n">
-        <v>555</v>
-      </c>
-      <c r="P30" t="n">
-        <v>599</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1154</v>
-      </c>
-      <c r="R30" t="n">
-        <v>533</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1293</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1882</v>
-      </c>
-      <c r="U30" t="n">
-        <v>4461</v>
-      </c>
-      <c r="V30" t="n">
-        <v>6343</v>
-      </c>
-      <c r="W30" t="n">
-        <v>3626</v>
-      </c>
-      <c r="X30" t="n">
-        <v>2474</v>
-      </c>
+        <v>-15</v>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>provision for income taxes</t>
+          <t>loss before income taxes</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31546</v>
+        <v>-2209032</v>
       </c>
       <c r="C31" t="n">
-        <v>5605</v>
+        <v>-779022</v>
       </c>
       <c r="D31" t="n">
-        <v>13707</v>
-      </c>
-      <c r="E31" t="n">
-        <v>16647</v>
-      </c>
-      <c r="F31" t="n">
-        <v>41190</v>
-      </c>
+        <v>-728999</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>57837</v>
+        <v>-1004745</v>
       </c>
       <c r="H31" t="n">
-        <v>22873</v>
+        <v>-644772</v>
       </c>
       <c r="I31" t="n">
-        <v>19431</v>
-      </c>
-      <c r="J31" t="n">
-        <v>26</v>
-      </c>
-      <c r="K31" t="n">
-        <v>84</v>
-      </c>
+        <v>-369831</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>110</v>
-      </c>
-      <c r="M31" t="n">
-        <v>2</v>
-      </c>
-      <c r="N31" t="n">
-        <v>21</v>
-      </c>
-      <c r="O31" t="n">
-        <v>186</v>
-      </c>
-      <c r="P31" t="n">
-        <v>106</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>292</v>
-      </c>
-      <c r="R31" t="n">
-        <v>69</v>
-      </c>
-      <c r="S31" t="n">
-        <v>115</v>
-      </c>
-      <c r="T31" t="n">
-        <v>223</v>
-      </c>
-      <c r="U31" t="n">
-        <v>476</v>
-      </c>
-      <c r="V31" t="n">
-        <v>699</v>
-      </c>
-      <c r="W31" t="n">
-        <v>346</v>
-      </c>
-      <c r="X31" t="n">
-        <v>205</v>
-      </c>
+        <v>-665</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>net loss</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-2240578</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-784627</v>
-      </c>
-      <c r="D32" t="n">
-        <v>-742706</v>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>net income</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>254673</v>
+      </c>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="n">
-        <v>-1062582</v>
-      </c>
-      <c r="H32" t="n">
-        <v>-667645</v>
-      </c>
-      <c r="I32" t="n">
-        <v>-389262</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>150</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>-775</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>68</v>
+      </c>
+      <c r="N32" t="n">
+        <v>129</v>
+      </c>
+      <c r="O32" t="n">
+        <v>369</v>
+      </c>
+      <c r="P32" t="n">
+        <v>493</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>862</v>
+      </c>
+      <c r="R32" t="n">
+        <v>464</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1178</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1659</v>
+      </c>
+      <c r="U32" t="n">
+        <v>3985</v>
+      </c>
+      <c r="V32" t="n">
+        <v>5644</v>
+      </c>
+      <c r="W32" t="n">
+        <v>3280</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2269</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>net income</t>
+          <t>net income attributable to noncontrolling interests and redeemable noncontrolling interests in subsidiaries</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="n">
-        <v>254673</v>
-      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>34490</v>
+      </c>
+      <c r="I33" t="n">
+        <v>19072</v>
+      </c>
       <c r="J33" t="n">
-        <v>150</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="K33" t="n">
+        <v>80</v>
+      </c>
+      <c r="L33" t="n">
+        <v>87</v>
+      </c>
       <c r="M33" t="n">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="N33" t="n">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="O33" t="n">
-        <v>369</v>
+        <v>38</v>
       </c>
       <c r="P33" t="n">
-        <v>493</v>
+        <v>103</v>
       </c>
       <c r="Q33" t="n">
-        <v>862</v>
+        <v>141</v>
       </c>
       <c r="R33" t="n">
-        <v>464</v>
+        <v>26</v>
       </c>
       <c r="S33" t="n">
-        <v>1178</v>
+        <v>36</v>
       </c>
       <c r="T33" t="n">
-        <v>1659</v>
+        <v>41</v>
       </c>
       <c r="U33" t="n">
-        <v>3985</v>
+        <v>84</v>
       </c>
       <c r="V33" t="n">
-        <v>5644</v>
+        <v>125</v>
       </c>
       <c r="W33" t="n">
-        <v>3280</v>
+        <v>-38</v>
       </c>
       <c r="X33" t="n">
-        <v>2269</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -2369,21 +2340,11 @@
           <t>net loss attributable to noncontrolling interests and redeemable noncontrolling interests in subsidiaries</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>-279178</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-75076</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-25167</v>
-      </c>
-      <c r="E34" t="n">
-        <v>-56843</v>
-      </c>
-      <c r="F34" t="n">
-        <v>-29648</v>
-      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
         <v>-86491</v>
       </c>
@@ -2408,115 +2369,141 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>net income attributable to noncontrolling interests and redeemable noncontrolling interests in subsidiaries</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+          <t>provision for income taxes</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>31546</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5605</v>
+      </c>
+      <c r="D35" t="n">
+        <v>13707</v>
+      </c>
+      <c r="E35" t="n">
+        <v>16647</v>
+      </c>
+      <c r="F35" t="n">
+        <v>41190</v>
+      </c>
+      <c r="G35" t="n">
+        <v>57837</v>
+      </c>
       <c r="H35" t="n">
-        <v>34490</v>
+        <v>22873</v>
       </c>
       <c r="I35" t="n">
-        <v>19072</v>
+        <v>19431</v>
       </c>
       <c r="J35" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="K35" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L35" t="n">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="M35" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="N35" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O35" t="n">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="P35" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q35" t="n">
-        <v>141</v>
+        <v>292</v>
       </c>
       <c r="R35" t="n">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="S35" t="n">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="T35" t="n">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="U35" t="n">
-        <v>84</v>
+        <v>476</v>
       </c>
       <c r="V35" t="n">
-        <v>125</v>
+        <v>699</v>
       </c>
       <c r="W35" t="n">
-        <v>-38</v>
+        <v>346</v>
       </c>
       <c r="X35" t="n">
-        <v>10</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>net loss attributable to common stockholders</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-1961400</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-709551</v>
-      </c>
-      <c r="D36" t="n">
-        <v>-717539</v>
-      </c>
-      <c r="E36" t="inlineStr"/>
+          <t>net income attributable to common stockholders</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>311516</v>
+      </c>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="n">
-        <v>-976091</v>
-      </c>
-      <c r="H36" t="n">
-        <v>-702135</v>
-      </c>
-      <c r="I36" t="n">
-        <v>-408334</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>143</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>-862</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>16</v>
+      </c>
+      <c r="N36" t="n">
+        <v>104</v>
+      </c>
+      <c r="O36" t="n">
+        <v>331</v>
+      </c>
+      <c r="P36" t="n">
+        <v>390</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>721</v>
+      </c>
+      <c r="R36" t="n">
+        <v>438</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1142</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1618</v>
+      </c>
+      <c r="U36" t="n">
+        <v>3901</v>
+      </c>
+      <c r="V36" t="n">
+        <v>5519</v>
+      </c>
+      <c r="W36" t="n">
+        <v>3318</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2259</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>net loss per share of common stock attributable to common stockholders</t>
+          <t>less: buy-out of noncontrolling interest</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -2532,79 +2519,63 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
+      <c r="O37" t="n">
+        <v>31</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>31</v>
+      </c>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
+      <c r="V37" t="n">
+        <v>-5</v>
+      </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>net income attributable to common stockholders</t>
+          <t>net income per share of common stock attributable to common stockholders</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="n">
-        <v>311516</v>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>143</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>16</v>
-      </c>
-      <c r="N38" t="n">
-        <v>104</v>
-      </c>
-      <c r="O38" t="n">
-        <v>331</v>
-      </c>
-      <c r="P38" t="n">
-        <v>390</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>721</v>
-      </c>
-      <c r="R38" t="n">
-        <v>438</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1142</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1618</v>
-      </c>
-      <c r="U38" t="n">
-        <v>3901</v>
-      </c>
-      <c r="V38" t="n">
-        <v>5519</v>
-      </c>
-      <c r="W38" t="n">
-        <v>3318</v>
-      </c>
-      <c r="X38" t="n">
-        <v>2259</v>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>net income per share of common stock attributable to common stockholders, basic and diluted</t>
+          <t>automotive revenues [member]</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -2629,12 +2600,16 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>less: buy-out of noncontrolling interest</t>
+          <t>automobiles [member]</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -2650,77 +2625,79 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
-      <c r="O40" t="n">
-        <v>31</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>31</v>
-      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="n">
-        <v>-5</v>
-      </c>
+      <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>net income used in computing net income per share of common stock</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
+          <t>net loss</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-2240578</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-784627</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-742706</v>
+      </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>-1062582</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-667645</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-389262</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>-775</v>
+      </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
-      <c r="O41" t="n">
-        <v>300</v>
-      </c>
-      <c r="P41" t="n">
-        <v>390</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>690</v>
-      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
-      <c r="T41" t="n">
-        <v>1618</v>
-      </c>
-      <c r="U41" t="n">
-        <v>3906</v>
-      </c>
-      <c r="V41" t="n">
-        <v>5524</v>
-      </c>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>net income per share of common stock attributable to common stockholders</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+          <t>net loss attributable to noncontrolling interests and redeemable noncontrolling interests in subsidiaries</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-279178</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-75076</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-25167</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-56843</v>
+      </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
@@ -2739,168 +2716,84 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="X42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>basic</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>-11.83</v>
-      </c>
-      <c r="C43" t="n">
-        <v>-4.19</v>
-      </c>
-      <c r="D43" t="n">
-        <v>-4.22</v>
-      </c>
-      <c r="E43" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="F43" t="n">
-        <v>-7.54</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-5.72</v>
-      </c>
-      <c r="H43" t="n">
-        <v>-4.1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-5.72</v>
-      </c>
-      <c r="L43" t="n">
-        <v>-4.92</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0.5600000000000001</v>
-      </c>
+          <t>net income used in computing net income per share of common stock</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="n">
-        <v>0.32</v>
+        <v>300</v>
       </c>
       <c r="P43" t="n">
-        <v>0.42</v>
+        <v>390</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1.18</v>
-      </c>
+        <v>690</v>
+      </c>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="n">
-        <v>1.62</v>
+        <v>1618</v>
       </c>
       <c r="U43" t="n">
-        <v>3.98</v>
+        <v>3906</v>
       </c>
       <c r="V43" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="W43" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="X43" t="n">
-        <v>2.18</v>
-      </c>
+        <v>5524</v>
+      </c>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>diluted</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>-11.83</v>
-      </c>
-      <c r="C44" t="n">
-        <v>-4.19</v>
-      </c>
-      <c r="D44" t="n">
-        <v>-4.22</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F44" t="n">
-        <v>-7.47</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-5.72</v>
-      </c>
-      <c r="H44" t="n">
-        <v>-4.1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-5.7</v>
-      </c>
-      <c r="L44" t="n">
-        <v>-4.92</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U44" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="V44" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="W44" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="X44" t="n">
-        <v>1.95</v>
-      </c>
+          <t>net income per share of common stock attributable to common stockholders, basic and diluted</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>weighted average shares used in computing net loss per share of common stock</t>
+          <t>automotive sales</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -2924,26 +2817,44 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
+      <c r="W45" t="n">
+        <v>15514</v>
+      </c>
+      <c r="X45" t="n">
+        <v>13670</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>weighted average shares used in computing net income per share of common stock</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+          <t>net loss attributable to common stockholders</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-1961400</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-709551</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-717539</v>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>-976091</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-702135</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-408334</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>-862</v>
+      </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
@@ -2955,168 +2866,76 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="X46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>basic</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>165758</v>
-      </c>
-      <c r="C47" t="n">
-        <v>169146</v>
-      </c>
-      <c r="D47" t="n">
-        <v>169997</v>
-      </c>
-      <c r="E47" t="n">
-        <v>170893</v>
-      </c>
-      <c r="F47" t="n">
-        <v>-368</v>
-      </c>
-      <c r="G47" t="n">
-        <v>170525</v>
-      </c>
-      <c r="H47" t="n">
-        <v>172989</v>
-      </c>
-      <c r="I47" t="n">
-        <v>176654</v>
-      </c>
-      <c r="J47" t="n">
-        <v>179</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-2</v>
-      </c>
-      <c r="L47" t="n">
-        <v>177</v>
-      </c>
-      <c r="M47" t="n">
-        <v>183</v>
-      </c>
-      <c r="N47" t="n">
-        <v>186</v>
-      </c>
-      <c r="O47" t="n">
-        <v>937</v>
-      </c>
-      <c r="P47" t="n">
-        <v>-4</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>933</v>
-      </c>
-      <c r="R47" t="n">
-        <v>961</v>
-      </c>
-      <c r="S47" t="n">
-        <v>971</v>
-      </c>
-      <c r="T47" t="n">
-        <v>998</v>
-      </c>
-      <c r="U47" t="n">
-        <v>-12</v>
-      </c>
-      <c r="V47" t="n">
-        <v>986</v>
-      </c>
-      <c r="W47" t="n">
-        <v>1034</v>
-      </c>
-      <c r="X47" t="n">
-        <v>1037</v>
-      </c>
+          <t>net loss per share of common stock attributable to common stockholders</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>diluted</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>165758</v>
-      </c>
-      <c r="C48" t="n">
-        <v>169146</v>
-      </c>
-      <c r="D48" t="n">
-        <v>169997</v>
-      </c>
-      <c r="E48" t="n">
-        <v>178196</v>
-      </c>
-      <c r="F48" t="n">
-        <v>-7671</v>
-      </c>
-      <c r="G48" t="n">
-        <v>170525</v>
-      </c>
-      <c r="H48" t="n">
-        <v>172989</v>
-      </c>
-      <c r="I48" t="n">
-        <v>176654</v>
-      </c>
-      <c r="J48" t="n">
-        <v>184</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-7</v>
-      </c>
-      <c r="L48" t="n">
-        <v>177</v>
-      </c>
-      <c r="M48" t="n">
-        <v>199</v>
-      </c>
-      <c r="N48" t="n">
-        <v>207</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1105</v>
-      </c>
-      <c r="P48" t="n">
-        <v>-22</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>1083</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1133</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1119</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1123</v>
-      </c>
-      <c r="U48" t="n">
-        <v>6</v>
-      </c>
-      <c r="V48" t="n">
-        <v>1129</v>
-      </c>
+          <t>automotive regulatory credits</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
       <c r="W48" t="n">
-        <v>1157</v>
+        <v>679</v>
       </c>
       <c r="X48" t="n">
-        <v>1155</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>automotive sales [member]</t>
+          <t>automotive leasing</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -3135,18 +2954,28 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
+      <c r="R49" t="n">
+        <v>297</v>
+      </c>
+      <c r="S49" t="n">
+        <v>332</v>
+      </c>
+      <c r="T49" t="n">
+        <v>385</v>
+      </c>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
+      <c r="W49" t="n">
+        <v>668</v>
+      </c>
+      <c r="X49" t="n">
+        <v>588</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>automobiles [member]</t>
+          <t>weighted average shares used in computing net income per share of common stock</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -3171,46 +3000,92 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>automotive revenues [member]</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>-11.83</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-4.19</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-4.22</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-7.54</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-5.72</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-2.31</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-5.72</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-4.92</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U51" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="V51" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="W51" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2.18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>revenues</t>
+          <t>total revenues</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -3229,88 +3104,100 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
+      <c r="R52" t="n">
+        <v>9002</v>
+      </c>
+      <c r="S52" t="n">
+        <v>10206</v>
+      </c>
+      <c r="T52" t="n">
+        <v>12057</v>
+      </c>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="X52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>revenues</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
+          <t>diluted</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>-11.83</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-4.19</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-4.22</v>
+      </c>
       <c r="E53" t="n">
-        <v>5878305</v>
+        <v>1.75</v>
       </c>
       <c r="F53" t="n">
-        <v>11753217</v>
+        <v>-7.47</v>
       </c>
       <c r="G53" t="n">
-        <v>17631522</v>
+        <v>-5.72</v>
       </c>
       <c r="H53" t="n">
-        <v>3508741</v>
+        <v>-4.1</v>
       </c>
       <c r="I53" t="n">
-        <v>5168027</v>
+        <v>-2.31</v>
       </c>
       <c r="J53" t="n">
-        <v>5132</v>
+        <v>0.78</v>
       </c>
       <c r="K53" t="n">
-        <v>14820</v>
+        <v>-5.7</v>
       </c>
       <c r="L53" t="n">
-        <v>19952</v>
+        <v>-4.92</v>
       </c>
       <c r="M53" t="n">
-        <v>4893</v>
+        <v>0.08</v>
       </c>
       <c r="N53" t="n">
-        <v>4911</v>
+        <v>0.5</v>
       </c>
       <c r="O53" t="n">
-        <v>7346</v>
+        <v>0.27</v>
       </c>
       <c r="P53" t="n">
-        <v>18838</v>
+        <v>0.37</v>
       </c>
       <c r="Q53" t="n">
-        <v>26184</v>
+        <v>0.64</v>
       </c>
       <c r="R53" t="n">
-        <v>8705</v>
+        <v>0.39</v>
       </c>
       <c r="S53" t="n">
-        <v>9874</v>
+        <v>1.02</v>
       </c>
       <c r="T53" t="n">
-        <v>11672</v>
+        <v>1.44</v>
       </c>
       <c r="U53" t="n">
-        <v>32453</v>
+        <v>3.46</v>
       </c>
       <c r="V53" t="n">
-        <v>44125</v>
-      </c>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
+        <v>4.9</v>
+      </c>
+      <c r="W53" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>automotive sales</t>
+          <t>automotive regulatory credits [member]</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -3334,17 +3221,13 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
-      <c r="W54" t="n">
-        <v>15514</v>
-      </c>
-      <c r="X54" t="n">
-        <v>13670</v>
-      </c>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>automotive regulatory credits</t>
+          <t>total automotive revenues</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -3369,16 +3252,16 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="n">
-        <v>679</v>
+        <v>16861</v>
       </c>
       <c r="X55" t="n">
-        <v>344</v>
+        <v>14602</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>automotive leasing</t>
+          <t>weighted average shares used in computing net loss per share of common stock</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -3397,64 +3280,94 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="n">
-        <v>297</v>
-      </c>
-      <c r="S56" t="n">
-        <v>332</v>
-      </c>
-      <c r="T56" t="n">
-        <v>385</v>
-      </c>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
-      <c r="W56" t="n">
-        <v>668</v>
-      </c>
-      <c r="X56" t="n">
-        <v>588</v>
-      </c>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>total revenues</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>165758</v>
+      </c>
+      <c r="C57" t="n">
+        <v>169146</v>
+      </c>
+      <c r="D57" t="n">
+        <v>169997</v>
+      </c>
+      <c r="E57" t="n">
+        <v>170893</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-368</v>
+      </c>
+      <c r="G57" t="n">
+        <v>170525</v>
+      </c>
+      <c r="H57" t="n">
+        <v>172989</v>
+      </c>
+      <c r="I57" t="n">
+        <v>176654</v>
+      </c>
+      <c r="J57" t="n">
+        <v>179</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L57" t="n">
+        <v>177</v>
+      </c>
+      <c r="M57" t="n">
+        <v>183</v>
+      </c>
+      <c r="N57" t="n">
+        <v>186</v>
+      </c>
+      <c r="O57" t="n">
+        <v>937</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>933</v>
+      </c>
       <c r="R57" t="n">
-        <v>9002</v>
+        <v>961</v>
       </c>
       <c r="S57" t="n">
-        <v>10206</v>
+        <v>971</v>
       </c>
       <c r="T57" t="n">
-        <v>12057</v>
-      </c>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
+        <v>998</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-12</v>
+      </c>
+      <c r="V57" t="n">
+        <v>986</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1034</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1037</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>total automotive revenues</t>
+          <t>automotive sales [member]</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -3478,17 +3391,13 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
-      <c r="W58" t="n">
-        <v>16861</v>
-      </c>
-      <c r="X58" t="n">
-        <v>14602</v>
-      </c>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>cost of revenues</t>
+          <t>automotive leasing</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -3507,84 +3416,62 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
+      <c r="R59" t="n">
+        <v>160</v>
+      </c>
+      <c r="S59" t="n">
+        <v>188</v>
+      </c>
+      <c r="T59" t="n">
+        <v>234</v>
+      </c>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="W59" t="n">
+        <v>408</v>
+      </c>
+      <c r="X59" t="n">
+        <v>368</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>cost of revenues</t>
+          <t>automotive sales</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="n">
-        <v>4405919</v>
-      </c>
-      <c r="F60" t="n">
-        <v>9279653</v>
-      </c>
-      <c r="G60" t="n">
-        <v>13685572</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2856209</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4253763</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4014</v>
-      </c>
-      <c r="K60" t="n">
-        <v>11925</v>
-      </c>
-      <c r="L60" t="n">
-        <v>15939</v>
-      </c>
-      <c r="M60" t="n">
-        <v>3699</v>
-      </c>
-      <c r="N60" t="n">
-        <v>3714</v>
-      </c>
-      <c r="O60" t="n">
-        <v>5361</v>
-      </c>
-      <c r="P60" t="n">
-        <v>14335</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>19696</v>
-      </c>
-      <c r="R60" t="n">
-        <v>6457</v>
-      </c>
-      <c r="S60" t="n">
-        <v>7119</v>
-      </c>
-      <c r="T60" t="n">
-        <v>8150</v>
-      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
+      <c r="W60" t="n">
+        <v>10914</v>
+      </c>
+      <c r="X60" t="n">
+        <v>10153</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>automotive sales</t>
+          <t>total cost of revenues</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -3603,22 +3490,24 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
+      <c r="R61" t="n">
+        <v>6617</v>
+      </c>
+      <c r="S61" t="n">
+        <v>7307</v>
+      </c>
+      <c r="T61" t="n">
+        <v>8384</v>
+      </c>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
-      <c r="W61" t="n">
-        <v>10914</v>
-      </c>
-      <c r="X61" t="n">
-        <v>10153</v>
-      </c>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>automotive leasing</t>
+          <t>automotive leasing [member]</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -3637,64 +3526,94 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="n">
-        <v>160</v>
-      </c>
-      <c r="S62" t="n">
-        <v>188</v>
-      </c>
-      <c r="T62" t="n">
-        <v>234</v>
-      </c>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
-      <c r="W62" t="n">
-        <v>408</v>
-      </c>
-      <c r="X62" t="n">
-        <v>368</v>
-      </c>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>total cost of revenues</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
+          <t>diluted</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>165758</v>
+      </c>
+      <c r="C63" t="n">
+        <v>169146</v>
+      </c>
+      <c r="D63" t="n">
+        <v>169997</v>
+      </c>
+      <c r="E63" t="n">
+        <v>178196</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-7671</v>
+      </c>
+      <c r="G63" t="n">
+        <v>170525</v>
+      </c>
+      <c r="H63" t="n">
+        <v>172989</v>
+      </c>
+      <c r="I63" t="n">
+        <v>176654</v>
+      </c>
+      <c r="J63" t="n">
+        <v>184</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-7</v>
+      </c>
+      <c r="L63" t="n">
+        <v>177</v>
+      </c>
+      <c r="M63" t="n">
+        <v>199</v>
+      </c>
+      <c r="N63" t="n">
+        <v>207</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1105</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-22</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1083</v>
+      </c>
       <c r="R63" t="n">
-        <v>6617</v>
+        <v>1133</v>
       </c>
       <c r="S63" t="n">
-        <v>7307</v>
+        <v>1119</v>
       </c>
       <c r="T63" t="n">
-        <v>8384</v>
-      </c>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
+        <v>1123</v>
+      </c>
+      <c r="U63" t="n">
+        <v>6</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1129</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1157</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1155</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>total automotive cost of revenues</t>
+          <t>revenues</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -3718,17 +3637,17 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
-      <c r="W64" t="n">
-        <v>11322</v>
-      </c>
-      <c r="X64" t="n">
-        <v>10521</v>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>energy generation and storage [member]</t>
+          <t>total automotive cost of revenues</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -3752,38 +3671,70 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="W65" t="n">
+        <v>11322</v>
+      </c>
+      <c r="X65" t="n">
+        <v>10521</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>automotive regulatory credits [member]</t>
+          <t>revenues</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>5878305</v>
+      </c>
+      <c r="F66" t="n">
+        <v>11753217</v>
+      </c>
+      <c r="G66" t="n">
+        <v>17631522</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3508741</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5168027</v>
+      </c>
+      <c r="J66" t="n">
+        <v>5132</v>
+      </c>
+      <c r="K66" t="n">
+        <v>14820</v>
+      </c>
+      <c r="L66" t="n">
+        <v>19952</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4893</v>
+      </c>
+      <c r="N66" t="n">
+        <v>4911</v>
+      </c>
+      <c r="O66" t="n">
+        <v>7346</v>
+      </c>
+      <c r="P66" t="n">
+        <v>18838</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>26184</v>
+      </c>
+      <c r="R66" t="n">
+        <v>8705</v>
+      </c>
+      <c r="S66" t="n">
+        <v>9874</v>
+      </c>
+      <c r="T66" t="n">
+        <v>11672</v>
+      </c>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
@@ -3816,11 +3767,11 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="W67" t="n">
+        <v>1279</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1466</v>
       </c>
     </row>
     <row r="68">
@@ -3832,63 +3783,33 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="n">
-        <v>399317</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1155927</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1555244</v>
-      </c>
-      <c r="H68" t="n">
-        <v>324661</v>
-      </c>
-      <c r="I68" t="n">
-        <v>368208</v>
-      </c>
-      <c r="J68" t="n">
-        <v>402</v>
-      </c>
-      <c r="K68" t="n">
-        <v>1129</v>
-      </c>
-      <c r="L68" t="n">
-        <v>1531</v>
-      </c>
-      <c r="M68" t="n">
-        <v>293</v>
-      </c>
-      <c r="N68" t="n">
-        <v>370</v>
-      </c>
-      <c r="O68" t="n">
-        <v>579</v>
-      </c>
-      <c r="P68" t="n">
-        <v>1415</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>1994</v>
-      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="n">
-        <v>1465</v>
-      </c>
-      <c r="W68" t="n">
-        <v>616</v>
-      </c>
-      <c r="X68" t="n">
-        <v>866</v>
-      </c>
+        <v>1642</v>
+      </c>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>total revenues</t>
+          <t>cost of revenues</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -3907,24 +3828,22 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="n">
-        <v>494</v>
-      </c>
-      <c r="S69" t="n">
-        <v>801</v>
-      </c>
-      <c r="T69" t="n">
-        <v>806</v>
-      </c>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>cost of revenues</t>
+          <t>automotive revenues [member]</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -3949,11 +3868,7 @@
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="X70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3965,60 +3880,62 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
-        <v>330554</v>
+        <v>4405919</v>
       </c>
       <c r="F71" t="n">
-        <v>1034342</v>
+        <v>9279653</v>
       </c>
       <c r="G71" t="n">
-        <v>1364896</v>
+        <v>13685572</v>
       </c>
       <c r="H71" t="n">
-        <v>316887</v>
+        <v>2856209</v>
       </c>
       <c r="I71" t="n">
-        <v>325523</v>
+        <v>4253763</v>
       </c>
       <c r="J71" t="n">
-        <v>314</v>
+        <v>4014</v>
       </c>
       <c r="K71" t="n">
-        <v>1027</v>
+        <v>11925</v>
       </c>
       <c r="L71" t="n">
-        <v>1341</v>
+        <v>15939</v>
       </c>
       <c r="M71" t="n">
-        <v>282</v>
+        <v>3699</v>
       </c>
       <c r="N71" t="n">
-        <v>349</v>
+        <v>3714</v>
       </c>
       <c r="O71" t="n">
-        <v>558</v>
+        <v>5361</v>
       </c>
       <c r="P71" t="n">
-        <v>1418</v>
+        <v>14335</v>
       </c>
       <c r="Q71" t="n">
-        <v>1976</v>
-      </c>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
+        <v>19696</v>
+      </c>
+      <c r="R71" t="n">
+        <v>6457</v>
+      </c>
+      <c r="S71" t="n">
+        <v>7119</v>
+      </c>
+      <c r="T71" t="n">
+        <v>8150</v>
+      </c>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
-      <c r="W71" t="n">
-        <v>688</v>
-      </c>
-      <c r="X71" t="n">
-        <v>769</v>
-      </c>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>total cost of revenues</t>
+          <t>total revenues</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -4038,13 +3955,13 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="n">
-        <v>595</v>
+        <v>494</v>
       </c>
       <c r="S72" t="n">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="T72" t="n">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
@@ -4054,7 +3971,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>services and other [member]</t>
+          <t>revenues</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -4079,16 +3996,12 @@
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="X73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>automotive leasing [member]</t>
+          <t>energy generation and storage [member]</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -4113,7 +4026,11 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4141,7 +4058,9 @@
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
+      <c r="V75" t="n">
+        <v>44125</v>
+      </c>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr">
         <is>
@@ -4171,32 +4090,20 @@
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="n">
-        <v>893</v>
-      </c>
-      <c r="S76" t="n">
-        <v>951</v>
-      </c>
-      <c r="T76" t="n">
-        <v>894</v>
-      </c>
-      <c r="U76" t="n">
-        <v>748</v>
-      </c>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
       <c r="V76" t="n">
-        <v>1642</v>
-      </c>
-      <c r="W76" t="n">
-        <v>1279</v>
-      </c>
-      <c r="X76" t="n">
-        <v>1466</v>
-      </c>
+        <v>47232</v>
+      </c>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>automotive revenues [member]</t>
+          <t>total cost of revenues</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -4215,9 +4122,15 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
+      <c r="R77" t="n">
+        <v>595</v>
+      </c>
+      <c r="S77" t="n">
+        <v>781</v>
+      </c>
+      <c r="T77" t="n">
+        <v>803</v>
+      </c>
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
@@ -4226,7 +4139,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>revenues</t>
+          <t>services and other [member]</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -4262,26 +4175,50 @@
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>399317</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1155927</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1555244</v>
+      </c>
+      <c r="H79" t="n">
+        <v>324661</v>
+      </c>
+      <c r="I79" t="n">
+        <v>368208</v>
+      </c>
+      <c r="J79" t="n">
+        <v>402</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1129</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1531</v>
+      </c>
+      <c r="M79" t="n">
+        <v>293</v>
+      </c>
+      <c r="N79" t="n">
+        <v>370</v>
+      </c>
+      <c r="O79" t="n">
+        <v>579</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1415</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1994</v>
+      </c>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
-      <c r="V79" t="n">
-        <v>47232</v>
-      </c>
+      <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
     </row>
@@ -4313,16 +4250,12 @@
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="X80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>cost of revenues</t>
+          <t>revenues</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -4345,20 +4278,18 @@
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
-      <c r="V81" t="n">
-        <v>32415</v>
-      </c>
+      <c r="V81" t="inlineStr"/>
       <c r="W81" t="n">
-        <v>1286</v>
+        <v>616</v>
       </c>
       <c r="X81" t="n">
-        <v>1410</v>
+        <v>866</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>automotive leasing</t>
+          <t>cost of revenues</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -4382,15 +4313,19 @@
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="n">
-        <v>978</v>
-      </c>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
+        <v>32415</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1286</v>
+      </c>
+      <c r="X82" t="n">
+        <v>1410</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>total cost of revenues</t>
+          <t>services and other [member]</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -4409,28 +4344,22 @@
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="n">
-        <v>962</v>
-      </c>
-      <c r="S83" t="n">
-        <v>986</v>
-      </c>
-      <c r="T83" t="n">
-        <v>910</v>
-      </c>
-      <c r="U83" t="n">
-        <v>32483</v>
-      </c>
-      <c r="V83" t="n">
-        <v>33393</v>
-      </c>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>automotive segment [member]</t>
+          <t>automotive leasing</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -4453,39 +4382,71 @@
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
+      <c r="V84" t="n">
+        <v>978</v>
+      </c>
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>energy generation and storage [member]</t>
+          <t>cost of revenues</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>330554</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1034342</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1364896</v>
+      </c>
+      <c r="H85" t="n">
+        <v>316887</v>
+      </c>
+      <c r="I85" t="n">
+        <v>325523</v>
+      </c>
+      <c r="J85" t="n">
+        <v>314</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1027</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1341</v>
+      </c>
+      <c r="M85" t="n">
+        <v>282</v>
+      </c>
+      <c r="N85" t="n">
+        <v>349</v>
+      </c>
+      <c r="O85" t="n">
+        <v>558</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1418</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1976</v>
+      </c>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4509,9 +4470,15 @@
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
+      <c r="R86" t="n">
+        <v>893</v>
+      </c>
+      <c r="S86" t="n">
+        <v>951</v>
+      </c>
+      <c r="T86" t="n">
+        <v>894</v>
+      </c>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
@@ -4520,7 +4487,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>total revenues</t>
+          <t>total cost of revenues</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -4539,24 +4506,20 @@
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="n">
-        <v>9895</v>
-      </c>
-      <c r="S87" t="n">
-        <v>11157</v>
-      </c>
-      <c r="T87" t="n">
-        <v>12951</v>
-      </c>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
+      <c r="V87" t="n">
+        <v>33393</v>
+      </c>
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>revenues</t>
+          <t>total cost of revenues</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
@@ -4575,20 +4538,24 @@
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
+      <c r="R88" t="n">
+        <v>962</v>
+      </c>
+      <c r="S88" t="n">
+        <v>986</v>
+      </c>
+      <c r="T88" t="n">
+        <v>910</v>
+      </c>
       <c r="U88" t="inlineStr"/>
-      <c r="V88" t="n">
-        <v>2789</v>
-      </c>
+      <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>cost of revenues</t>
+          <t>energy generation and storage [member]</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -4618,7 +4585,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>gross profit</t>
+          <t>revenues</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -4637,15 +4604,9 @@
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="n">
-        <v>2316</v>
-      </c>
-      <c r="S90" t="n">
-        <v>2864</v>
-      </c>
-      <c r="T90" t="n">
-        <v>3657</v>
-      </c>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>
@@ -4654,7 +4615,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>energy generation and storage segment [member]</t>
+          <t>automotive segment [member]</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -4684,7 +4645,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>cost of revenues</t>
+          <t>revenues</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
@@ -4708,7 +4669,7 @@
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="n">
-        <v>2918</v>
+        <v>2789</v>
       </c>
       <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr"/>
@@ -4716,7 +4677,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>services and other [member]</t>
+          <t>revenues</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
@@ -4746,7 +4707,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>revenues</t>
+          <t>total revenues</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -4765,9 +4726,15 @@
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
+      <c r="R94" t="n">
+        <v>9895</v>
+      </c>
+      <c r="S94" t="n">
+        <v>11157</v>
+      </c>
+      <c r="T94" t="n">
+        <v>12951</v>
+      </c>
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
@@ -4776,7 +4743,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>total revenues</t>
+          <t>cost of revenues</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
@@ -4795,15 +4762,9 @@
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="n">
-        <v>494</v>
-      </c>
-      <c r="S95" t="n">
-        <v>801</v>
-      </c>
-      <c r="T95" t="n">
-        <v>806</v>
-      </c>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
       <c r="W95" t="inlineStr"/>
@@ -4812,7 +4773,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>revenues</t>
+          <t>cost of revenues</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
@@ -4836,7 +4797,7 @@
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="n">
-        <v>3802</v>
+        <v>2918</v>
       </c>
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr"/>
@@ -4868,8 +4829,12 @@
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
+      <c r="W97" t="n">
+        <v>688</v>
+      </c>
+      <c r="X97" t="n">
+        <v>769</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4894,13 +4859,13 @@
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="n">
-        <v>-101</v>
+        <v>2316</v>
       </c>
       <c r="S98" t="n">
-        <v>20</v>
+        <v>2864</v>
       </c>
       <c r="T98" t="n">
-        <v>3</v>
+        <v>3657</v>
       </c>
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr"/>
@@ -4910,7 +4875,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>cost of revenues</t>
+          <t>services and other [member]</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -4933,11 +4898,5267 @@
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
-      <c r="V99" t="n">
-        <v>3906</v>
-      </c>
+      <c r="V99" t="inlineStr"/>
       <c r="W99" t="inlineStr"/>
       <c r="X99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>energy generation and storage segment [member]</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="n">
+        <v>3802</v>
+      </c>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="n">
+        <v>1465</v>
+      </c>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>total revenues</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="n">
+        <v>494</v>
+      </c>
+      <c r="S104" t="n">
+        <v>801</v>
+      </c>
+      <c r="T104" t="n">
+        <v>806</v>
+      </c>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="n">
+        <v>3906</v>
+      </c>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>gross profit</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="n">
+        <v>-101</v>
+      </c>
+      <c r="S108" t="n">
+        <v>20</v>
+      </c>
+      <c r="T108" t="n">
+        <v>3</v>
+      </c>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AC71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Year Ended 2017</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Q1 2018</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Q2 2018</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Q3 2018</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Q4 2018</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Year Ended 2018</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Q1 2019</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Q2 2019</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Q3 2019</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Q4 2019</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Year Ended 2019</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Q1 2020</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Q2 2020</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Q3 2020</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Q4 2020</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Year Ended 2020</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Q1 2021</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Q2 2021</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Q3 2021</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Q4 2021</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Year Ended 2021</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Q1 2022</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Q2 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>automotive sales</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8534752</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>6824413</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14636855</v>
+      </c>
+      <c r="H3" t="n">
+        <v>21461268</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>automotive leasing</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>215120</v>
+      </c>
+      <c r="K3" t="n">
+        <v>208362</v>
+      </c>
+      <c r="L3" t="n">
+        <v>221</v>
+      </c>
+      <c r="M3" t="n">
+        <v>648</v>
+      </c>
+      <c r="N3" t="n">
+        <v>869</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>automotive leasing</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>239</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>268</v>
+      </c>
+      <c r="R3" t="n">
+        <v>265</v>
+      </c>
+      <c r="S3" t="n">
+        <v>787</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1052</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>total revenues</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>10389</v>
+      </c>
+      <c r="W3" t="n">
+        <v>11958</v>
+      </c>
+      <c r="X3" t="n">
+        <v>13757</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>40066</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>53823</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>total revenues</t>
+        </is>
+      </c>
+      <c r="AB3" t="n">
+        <v>18756</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>16934</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>automotive leasing</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1106548</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>automotive sales</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2561881</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3117865</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>total automotive revenues</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>3723861</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5376389</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5353</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15468</v>
+      </c>
+      <c r="N4" t="n">
+        <v>20821</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>total automotive revenues</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>5132</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5179</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7611</v>
+      </c>
+      <c r="S4" t="n">
+        <v>19625</v>
+      </c>
+      <c r="T4" t="n">
+        <v>27236</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>total automotive revenues</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9641300</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>automotive leasing</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>173436</v>
+      </c>
+      <c r="E5" t="n">
+        <v>239816</v>
+      </c>
+      <c r="F5" t="n">
+        <v>220461</v>
+      </c>
+      <c r="G5" t="n">
+        <v>663000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>883461</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>services and other</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>492942</v>
+      </c>
+      <c r="K5" t="n">
+        <v>605079</v>
+      </c>
+      <c r="L5" t="n">
+        <v>548</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1678</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2226</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>services and other</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>560</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>487</v>
+      </c>
+      <c r="R5" t="n">
+        <v>581</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1725</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2306</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>total cost of revenues</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>8174</v>
+      </c>
+      <c r="W5" t="n">
+        <v>9074</v>
+      </c>
+      <c r="X5" t="n">
+        <v>10097</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>30120</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>40217</v>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>total cost of revenues</t>
+        </is>
+      </c>
+      <c r="AB5" t="n">
+        <v>13296</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>12700</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>energy generation and storage</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1116266</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>total automotive revenues</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2735317</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3357681</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6098766</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12416217</v>
+      </c>
+      <c r="H6" t="n">
+        <v>18514983</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>total revenues</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>4541464</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6349676</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6303</v>
+      </c>
+      <c r="M6" t="n">
+        <v>18275</v>
+      </c>
+      <c r="N6" t="n">
+        <v>24578</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>total revenues</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>5985</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6036</v>
+      </c>
+      <c r="R6" t="n">
+        <v>8771</v>
+      </c>
+      <c r="S6" t="n">
+        <v>22765</v>
+      </c>
+      <c r="T6" t="n">
+        <v>31536</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>gross profit</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>2215</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2884</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3660</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9946</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>13606</v>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>gross profit</t>
+        </is>
+      </c>
+      <c r="AB6" t="n">
+        <v>5460</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>services and other</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1001185</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>energy generation and storage</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>410022</v>
+      </c>
+      <c r="E7" t="n">
+        <v>374408</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>total revenues</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11758751</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>services and other</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>263412</v>
+      </c>
+      <c r="E8" t="n">
+        <v>270142</v>
+      </c>
+      <c r="F8" t="n">
+        <v>326330</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1064711</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1391041</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>automotive leasing</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>117092</v>
+      </c>
+      <c r="K8" t="n">
+        <v>106322</v>
+      </c>
+      <c r="L8" t="n">
+        <v>117</v>
+      </c>
+      <c r="M8" t="n">
+        <v>342</v>
+      </c>
+      <c r="N8" t="n">
+        <v>459</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>automotive leasing</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>122</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>148</v>
+      </c>
+      <c r="R8" t="n">
+        <v>145</v>
+      </c>
+      <c r="S8" t="n">
+        <v>418</v>
+      </c>
+      <c r="T8" t="n">
+        <v>563</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>research and development</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>666</v>
+      </c>
+      <c r="W8" t="n">
+        <v>576</v>
+      </c>
+      <c r="X8" t="n">
+        <v>611</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1982</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2593</v>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>research and development</t>
+        </is>
+      </c>
+      <c r="AB8" t="n">
+        <v>865</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>total revenues</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3408751</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4002231</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6824413</v>
+      </c>
+      <c r="G9" t="n">
+        <v>14636855</v>
+      </c>
+      <c r="H9" t="n">
+        <v>21461268</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>total automotive cost of revenues</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>2973301</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4360085</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4131</v>
+      </c>
+      <c r="M9" t="n">
+        <v>12267</v>
+      </c>
+      <c r="N9" t="n">
+        <v>16398</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>total automotive cost of revenues</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>3821</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3862</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5506</v>
+      </c>
+      <c r="S9" t="n">
+        <v>14753</v>
+      </c>
+      <c r="T9" t="n">
+        <v>20259</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>selling, general and administrative</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>1056</v>
+      </c>
+      <c r="W9" t="n">
+        <v>973</v>
+      </c>
+      <c r="X9" t="n">
+        <v>994</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>3523</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>4517</v>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>selling, general and administrative</t>
+        </is>
+      </c>
+      <c r="AB9" t="n">
+        <v>992</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>automotive sales</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6724480</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>services and other</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>685533</v>
+      </c>
+      <c r="K10" t="n">
+        <v>743022</v>
+      </c>
+      <c r="L10" t="n">
+        <v>667</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2103</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2770</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>services and other</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>648</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>558</v>
+      </c>
+      <c r="R10" t="n">
+        <v>644</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2027</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2671</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>restructuring and other</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>-101</v>
+      </c>
+      <c r="W10" t="n">
+        <v>23</v>
+      </c>
+      <c r="X10" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-78</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-27</v>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>restructuring and other</t>
+        </is>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>automotive leasing</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>708224</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>automotive sales</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2091397</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2529739</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>total cost of revenues</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>3975721</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5428630</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>15397</v>
+      </c>
+      <c r="N11" t="n">
+        <v>20509</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>total cost of revenues</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>4751</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4769</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6708</v>
+      </c>
+      <c r="S11" t="n">
+        <v>18198</v>
+      </c>
+      <c r="T11" t="n">
+        <v>24906</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>total operating expenses</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>1621</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1572</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1656</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>5427</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>7083</v>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>total operating expenses</t>
+        </is>
+      </c>
+      <c r="AB11" t="n">
+        <v>1857</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>total automotive cost of revenues</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7432704</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>automotive leasing</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>104496</v>
+      </c>
+      <c r="E12" t="n">
+        <v>136915</v>
+      </c>
+      <c r="F12" t="n">
+        <v>119283</v>
+      </c>
+      <c r="G12" t="n">
+        <v>369142</v>
+      </c>
+      <c r="H12" t="n">
+        <v>488425</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>gross profit</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>565743</v>
+      </c>
+      <c r="K12" t="n">
+        <v>921046</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1191</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2878</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4069</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>gross profit</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>1234</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1267</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2063</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4567</v>
+      </c>
+      <c r="T12" t="n">
+        <v>6630</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>income from operations</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
+        <v>594</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1312</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2004</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>4519</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>6523</v>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>income from operations</t>
+        </is>
+      </c>
+      <c r="AB12" t="n">
+        <v>3603</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>energy generation and storage</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>874538</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>total automotive cost of revenues</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2195893</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2666654</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4525202</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9648795</v>
+      </c>
+      <c r="H13" t="n">
+        <v>14173997</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>interest income</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
+        <v>10</v>
+      </c>
+      <c r="W13" t="n">
+        <v>11</v>
+      </c>
+      <c r="X13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>56</v>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>interest income</t>
+        </is>
+      </c>
+      <c r="AB13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>services and other</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1229022</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>energy generation and storage</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>375363</v>
+      </c>
+      <c r="E14" t="n">
+        <v>330273</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>research and development</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>340174</v>
+      </c>
+      <c r="K14" t="n">
+        <v>323898</v>
+      </c>
+      <c r="L14" t="n">
+        <v>334</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1009</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1343</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>research and development</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>324</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>279</v>
+      </c>
+      <c r="R14" t="n">
+        <v>366</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1125</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1491</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>interest expense</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v>-99</v>
+      </c>
+      <c r="W14" t="n">
+        <v>-75</v>
+      </c>
+      <c r="X14" t="n">
+        <v>-126</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>-245</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>-371</v>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>interest expense</t>
+        </is>
+      </c>
+      <c r="AB14" t="n">
+        <v>-61</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>total cost of revenues</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9536264</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>services and other</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>380969</v>
+      </c>
+      <c r="E15" t="n">
+        <v>386374</v>
+      </c>
+      <c r="F15" t="n">
+        <v>444992</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1435362</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1880354</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>selling, general and administrative</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>703929</v>
+      </c>
+      <c r="K15" t="n">
+        <v>647261</v>
+      </c>
+      <c r="L15" t="n">
+        <v>596</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2050</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2646</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>selling, general and administrative</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>627</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>661</v>
+      </c>
+      <c r="R15" t="n">
+        <v>888</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2257</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3145</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>other income , net</t>
+        </is>
+      </c>
+      <c r="V15" t="n">
+        <v>28</v>
+      </c>
+      <c r="W15" t="n">
+        <v>45</v>
+      </c>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="n">
+        <v>135</v>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>other income, net</t>
+        </is>
+      </c>
+      <c r="AB15" t="n">
+        <v>56</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>gross profit</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2222487</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>total cost of revenues</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2952225</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3383301</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5300748</v>
+      </c>
+      <c r="G16" t="n">
+        <v>12118499</v>
+      </c>
+      <c r="H16" t="n">
+        <v>17419247</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>restructuring and other</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>43471</v>
+      </c>
+      <c r="K16" t="n">
+        <v>117345</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>149</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>restructuring and other</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>other income, net</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="n">
+        <v>-6</v>
+      </c>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>income before income taxes</t>
+        </is>
+      </c>
+      <c r="AB16" t="n">
+        <v>3626</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>gross profit</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>456526</v>
+      </c>
+      <c r="E17" t="n">
+        <v>618930</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1523665</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2518356</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4042021</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>total operating expenses</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>1087574</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1088504</v>
+      </c>
+      <c r="L17" t="n">
+        <v>930</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3208</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4138</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>total operating expenses</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>951</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>940</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1254</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3382</v>
+      </c>
+      <c r="T17" t="n">
+        <v>4636</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>income before income taxes</t>
+        </is>
+      </c>
+      <c r="V17" t="n">
+        <v>533</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1293</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1882</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>4461</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>6343</v>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>provision for income taxes</t>
+        </is>
+      </c>
+      <c r="AB17" t="n">
+        <v>346</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>research and development</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1378073</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>loss from operations</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>-521831</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-167458</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
+        <v>-69</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>income from operations</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>283</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>327</v>
+      </c>
+      <c r="R18" t="n">
+        <v>809</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1185</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1994</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>provision for income taxes</t>
+        </is>
+      </c>
+      <c r="V18" t="n">
+        <v>69</v>
+      </c>
+      <c r="W18" t="n">
+        <v>115</v>
+      </c>
+      <c r="X18" t="n">
+        <v>223</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>476</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>699</v>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>net income</t>
+        </is>
+      </c>
+      <c r="AB18" t="n">
+        <v>3280</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>selling, general and administrative</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2476500</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>research and development</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>367096</v>
+      </c>
+      <c r="E19" t="n">
+        <v>386129</v>
+      </c>
+      <c r="F19" t="n">
+        <v>350848</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1109522</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1460370</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>income from operations</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>261</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>interest income</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>8</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6</v>
+      </c>
+      <c r="S19" t="n">
+        <v>24</v>
+      </c>
+      <c r="T19" t="n">
+        <v>30</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>net income</t>
+        </is>
+      </c>
+      <c r="V19" t="n">
+        <v>464</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1178</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1659</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>3985</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>5644</v>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>net income attributable to noncontrolling interests and redeemable noncontrolling interests in subsidiaries</t>
+        </is>
+      </c>
+      <c r="AB19" t="n">
+        <v>-38</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>total operating expenses</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3854573</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>selling, general and administrative</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>686404</v>
+      </c>
+      <c r="E20" t="n">
+        <v>750759</v>
+      </c>
+      <c r="F20" t="n">
+        <v>729876</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2104615</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2834491</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>interest income</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>8762</v>
+      </c>
+      <c r="K20" t="n">
+        <v>10362</v>
+      </c>
+      <c r="L20" t="n">
+        <v>15</v>
+      </c>
+      <c r="M20" t="n">
+        <v>29</v>
+      </c>
+      <c r="N20" t="n">
+        <v>44</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>interest expense</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>-169</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-170</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-163</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-585</v>
+      </c>
+      <c r="T20" t="n">
+        <v>-748</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>net income attributable to noncontrolling interests and redeemable noncontrolling interests in subsidiaries</t>
+        </is>
+      </c>
+      <c r="V20" t="n">
+        <v>26</v>
+      </c>
+      <c r="W20" t="n">
+        <v>36</v>
+      </c>
+      <c r="X20" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>84</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>125</v>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>net income attributable to common stockholders</t>
+        </is>
+      </c>
+      <c r="AB20" t="n">
+        <v>3318</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>loss from operations</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1632086</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>income from operations</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>416757</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>interest expense</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>-157453</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-171979</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-185</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-500</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-685</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>other income, net</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>-54</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>-97</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-25</v>
+      </c>
+      <c r="T21" t="n">
+        <v>-122</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>net income attributable to common stockholders</t>
+        </is>
+      </c>
+      <c r="V21" t="n">
+        <v>438</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1142</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1618</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>3901</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>5519</v>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>net income per share of common stock attributable to common stockholders</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>interest income</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>19686</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>restructuring and other</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>103434</v>
+      </c>
+      <c r="F22" t="n">
+        <v>26184</v>
+      </c>
+      <c r="G22" t="n">
+        <v>109049</v>
+      </c>
+      <c r="H22" t="n">
+        <v>135233</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>other income , net</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>25750</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
+        <v>45</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>other expense, net</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>-15</v>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>less: buy-out of noncontrolling interest</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="AB22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>interest expense</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-471259</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>total operating expenses</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1053500</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1240322</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1106908</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3323186</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4430094</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>other income, net</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>-40756</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>income before income taxes</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>150</v>
+      </c>
+      <c r="R23" t="n">
+        <v>555</v>
+      </c>
+      <c r="S23" t="n">
+        <v>599</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1154</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>net income per share of common stock attributable to common stockholders</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>diluted</t>
+        </is>
+      </c>
+      <c r="AB23" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>other income, net</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-125373</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>loss from operations</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>-596974</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-621392</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>-388073</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>other income, net</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>85</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>provision for income taxes</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>21</v>
+      </c>
+      <c r="R24" t="n">
+        <v>186</v>
+      </c>
+      <c r="S24" t="n">
+        <v>106</v>
+      </c>
+      <c r="T24" t="n">
+        <v>292</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>net income used in computing net income per share of common stock</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="n">
+        <v>1618</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>3906</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>5524</v>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>weighted average shares used in computing net income per share of common stock</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>loss before income taxes</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-2209032</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>interest income</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>5214</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5064</v>
+      </c>
+      <c r="F25" t="n">
+        <v>6907</v>
+      </c>
+      <c r="G25" t="n">
+        <v>17626</v>
+      </c>
+      <c r="H25" t="n">
+        <v>24533</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>income before income taxes</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>176</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>net income</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>129</v>
+      </c>
+      <c r="R25" t="n">
+        <v>369</v>
+      </c>
+      <c r="S25" t="n">
+        <v>493</v>
+      </c>
+      <c r="T25" t="n">
+        <v>862</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="V25" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="AB25" t="n">
+        <v>1034</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>provision for income taxes</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>31546</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>other income , net</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>22876</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-1010</v>
+      </c>
+      <c r="H26" t="n">
+        <v>21866</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>loss before income taxes</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>-644772</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-369831</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
+        <v>-665</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>net income attributable to noncontrolling interests and redeemable noncontrolling interests in subsidiaries</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>25</v>
+      </c>
+      <c r="R26" t="n">
+        <v>38</v>
+      </c>
+      <c r="S26" t="n">
+        <v>103</v>
+      </c>
+      <c r="T26" t="n">
+        <v>141</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>diluted</t>
+        </is>
+      </c>
+      <c r="V26" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>diluted</t>
+        </is>
+      </c>
+      <c r="AB26" t="n">
+        <v>1157</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>net loss</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-2240578</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>interest expense</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>-149546</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-163582</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-175220</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-487851</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-663071</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>provision for income taxes</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>22873</v>
+      </c>
+      <c r="K27" t="n">
+        <v>19431</v>
+      </c>
+      <c r="L27" t="n">
+        <v>26</v>
+      </c>
+      <c r="M27" t="n">
+        <v>84</v>
+      </c>
+      <c r="N27" t="n">
+        <v>110</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>net income attributable to common stockholders</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>104</v>
+      </c>
+      <c r="R27" t="n">
+        <v>331</v>
+      </c>
+      <c r="S27" t="n">
+        <v>390</v>
+      </c>
+      <c r="T27" t="n">
+        <v>721</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>weighted average shares used in computing net income per share of common stock</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>automotive revenues [member]</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>net loss attributable to noncontrolling interests and redeemable noncontrolling interests in subsidiaries</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-279178</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>income before income taxes</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>271320</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>net loss</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>-667645</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-389262</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
+        <v>-775</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>less: buy-out of noncontrolling interest</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="n">
+        <v>31</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>31</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="V28" t="n">
+        <v>961</v>
+      </c>
+      <c r="W28" t="n">
+        <v>971</v>
+      </c>
+      <c r="X28" t="n">
+        <v>998</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>-12</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>986</v>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>net loss attributable to common stockholders</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-1961400</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>other expense, net</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>-37716</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>net income</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>150</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>net income per share of common stock attributable to common stockholders</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>diluted</t>
+        </is>
+      </c>
+      <c r="V29" t="n">
+        <v>1133</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1119</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1123</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1129</v>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>automotive sales</t>
+        </is>
+      </c>
+      <c r="AB29" t="n">
+        <v>15514</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>13670</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>net loss per share of common stock attributable to common stockholders</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>net income</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>254673</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>net income attributable to noncontrolling interests and redeemable noncontrolling interests in subsidiaries</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>34490</v>
+      </c>
+      <c r="K30" t="n">
+        <v>19072</v>
+      </c>
+      <c r="L30" t="n">
+        <v>7</v>
+      </c>
+      <c r="M30" t="n">
+        <v>80</v>
+      </c>
+      <c r="N30" t="n">
+        <v>87</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>net income used in computing net income per share of common stock</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="n">
+        <v>300</v>
+      </c>
+      <c r="S30" t="n">
+        <v>390</v>
+      </c>
+      <c r="T30" t="n">
+        <v>690</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>automobiles [member]</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>automotive regulatory credits</t>
+        </is>
+      </c>
+      <c r="AB30" t="n">
+        <v>679</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-11.83</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>other income, net</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>50911</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>net loss attributable to common stockholders</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>-702135</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-408334</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
+        <v>-862</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>automotive leasing</t>
+        </is>
+      </c>
+      <c r="AB31" t="n">
+        <v>668</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>diluted</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-11.83</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>loss before income taxes</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>-779022</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-728999</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>-1004745</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>net income attributable to common stockholders</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>143</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>diluted</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="V32" t="n">
+        <v>8705</v>
+      </c>
+      <c r="W32" t="n">
+        <v>9874</v>
+      </c>
+      <c r="X32" t="n">
+        <v>11672</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>32453</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>44125</v>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>total automotive revenues</t>
+        </is>
+      </c>
+      <c r="AB32" t="n">
+        <v>16861</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>14602</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>weighted average shares used in computing net loss per share of common stock</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>provision for income taxes</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>5605</v>
+      </c>
+      <c r="E33" t="n">
+        <v>13707</v>
+      </c>
+      <c r="F33" t="n">
+        <v>16647</v>
+      </c>
+      <c r="G33" t="n">
+        <v>41190</v>
+      </c>
+      <c r="H33" t="n">
+        <v>57837</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>net loss per share of common stock attributable to common stockholders</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>weighted average shares used in computing net income per share of common stock</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>automotive sales [member]</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>165758</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>net loss</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>-784627</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-742706</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>-1062582</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>net income per share of common stock attributable to common stockholders</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>186</v>
+      </c>
+      <c r="R34" t="n">
+        <v>937</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-4</v>
+      </c>
+      <c r="T34" t="n">
+        <v>933</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>automotive leasing</t>
+        </is>
+      </c>
+      <c r="V34" t="n">
+        <v>297</v>
+      </c>
+      <c r="W34" t="n">
+        <v>332</v>
+      </c>
+      <c r="X34" t="n">
+        <v>385</v>
+      </c>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>automotive sales</t>
+        </is>
+      </c>
+      <c r="AB34" t="n">
+        <v>10914</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>10153</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>diluted</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>165758</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>net income attributable to common stockholders</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>311516</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-2.31</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-5.72</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-4.92</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>diluted</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>207</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1105</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-22</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1083</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>total revenues</t>
+        </is>
+      </c>
+      <c r="V35" t="n">
+        <v>9002</v>
+      </c>
+      <c r="W35" t="n">
+        <v>10206</v>
+      </c>
+      <c r="X35" t="n">
+        <v>12057</v>
+      </c>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>automotive leasing</t>
+        </is>
+      </c>
+      <c r="AB35" t="n">
+        <v>408</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>net loss attributable to noncontrolling interests and redeemable noncontrolling interests in subsidiaries</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>-75076</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-25167</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-56843</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-29648</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-86491</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>diluted</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-2.31</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-4.92</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>automotive sales [member]</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>automotive regulatory credits [member]</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>total automotive cost of revenues</t>
+        </is>
+      </c>
+      <c r="AB36" t="n">
+        <v>11322</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>10521</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>net income per share of common stock attributable to common stockholders, basic and diluted</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>weighted average shares used in computing net income per share of common stock</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>energy generation and storage [member]</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>net loss attributable to common stockholders</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>-709551</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-717539</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>-976091</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>weighted average shares used in computing net loss per share of common stock</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>4893</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4911</v>
+      </c>
+      <c r="R38" t="n">
+        <v>7346</v>
+      </c>
+      <c r="S38" t="n">
+        <v>18838</v>
+      </c>
+      <c r="T38" t="n">
+        <v>26184</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>net loss per share of common stock attributable to common stockholders</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>172989</v>
+      </c>
+      <c r="K39" t="n">
+        <v>176654</v>
+      </c>
+      <c r="L39" t="n">
+        <v>179</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>177</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="V39" t="n">
+        <v>6457</v>
+      </c>
+      <c r="W39" t="n">
+        <v>7119</v>
+      </c>
+      <c r="X39" t="n">
+        <v>8150</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>24265</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>32415</v>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="AB39" t="n">
+        <v>616</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>weighted average shares used in computing net income per share of common stock</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>diluted</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>172989</v>
+      </c>
+      <c r="K40" t="n">
+        <v>176654</v>
+      </c>
+      <c r="L40" t="n">
+        <v>184</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-7</v>
+      </c>
+      <c r="N40" t="n">
+        <v>177</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>3699</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3714</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5361</v>
+      </c>
+      <c r="S40" t="n">
+        <v>14335</v>
+      </c>
+      <c r="T40" t="n">
+        <v>19696</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>automotive leasing</t>
+        </is>
+      </c>
+      <c r="V40" t="n">
+        <v>160</v>
+      </c>
+      <c r="W40" t="n">
+        <v>188</v>
+      </c>
+      <c r="X40" t="n">
+        <v>234</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>744</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>978</v>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>-4.19</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-4.22</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-7.54</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-5.72</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>automotive sales [member]</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>energy generation and storage [member]</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="n">
+        <v>1465</v>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="AB41" t="n">
+        <v>688</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>diluted</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>-4.19</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-4.22</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-7.47</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-5.72</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>automotive leasing [member]</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>services and other [member]</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>weighted average shares used in computing net loss per share of common stock</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>3508741</v>
+      </c>
+      <c r="K43" t="n">
+        <v>5168027</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5132</v>
+      </c>
+      <c r="M43" t="n">
+        <v>14820</v>
+      </c>
+      <c r="N43" t="n">
+        <v>19952</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>293</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>370</v>
+      </c>
+      <c r="R43" t="n">
+        <v>579</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1415</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1994</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>total cost of revenues</t>
+        </is>
+      </c>
+      <c r="V43" t="n">
+        <v>6617</v>
+      </c>
+      <c r="W43" t="n">
+        <v>7307</v>
+      </c>
+      <c r="X43" t="n">
+        <v>8384</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>25009</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>33393</v>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>169146</v>
+      </c>
+      <c r="E44" t="n">
+        <v>169997</v>
+      </c>
+      <c r="F44" t="n">
+        <v>170893</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-368</v>
+      </c>
+      <c r="H44" t="n">
+        <v>170525</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="AB44" t="n">
+        <v>1279</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>automotive sales [member]</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>2856209</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4253763</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4014</v>
+      </c>
+      <c r="M45" t="n">
+        <v>11925</v>
+      </c>
+      <c r="N45" t="n">
+        <v>15939</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>282</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>349</v>
+      </c>
+      <c r="R45" t="n">
+        <v>558</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1418</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1976</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>energy generation and storage [member]</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>diluted</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>169146</v>
+      </c>
+      <c r="E46" t="n">
+        <v>169997</v>
+      </c>
+      <c r="F46" t="n">
+        <v>178196</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-7671</v>
+      </c>
+      <c r="H46" t="n">
+        <v>170525</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>energy generation and storage [member]</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="n">
+        <v>1642</v>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="AB46" t="n">
+        <v>1286</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>5878305</v>
+      </c>
+      <c r="G48" t="n">
+        <v>11753217</v>
+      </c>
+      <c r="H48" t="n">
+        <v>17631522</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>324661</v>
+      </c>
+      <c r="K48" t="n">
+        <v>368208</v>
+      </c>
+      <c r="L48" t="n">
+        <v>402</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1129</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1531</v>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>automotive revenues [member]</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>total revenues</t>
+        </is>
+      </c>
+      <c r="V49" t="n">
+        <v>494</v>
+      </c>
+      <c r="W49" t="n">
+        <v>801</v>
+      </c>
+      <c r="X49" t="n">
+        <v>806</v>
+      </c>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>4405919</v>
+      </c>
+      <c r="G50" t="n">
+        <v>9279653</v>
+      </c>
+      <c r="H50" t="n">
+        <v>13685572</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>316887</v>
+      </c>
+      <c r="K50" t="n">
+        <v>325523</v>
+      </c>
+      <c r="L50" t="n">
+        <v>314</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1027</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1341</v>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>energy generation and storage [member]</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="n">
+        <v>47232</v>
+      </c>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>399317</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1155927</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1555244</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>total cost of revenues</t>
+        </is>
+      </c>
+      <c r="V53" t="n">
+        <v>595</v>
+      </c>
+      <c r="W53" t="n">
+        <v>781</v>
+      </c>
+      <c r="X53" t="n">
+        <v>803</v>
+      </c>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>services and other [member]</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>330554</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1034342</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1364896</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="n">
+        <v>2789</v>
+      </c>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="V56" t="n">
+        <v>893</v>
+      </c>
+      <c r="W56" t="n">
+        <v>951</v>
+      </c>
+      <c r="X56" t="n">
+        <v>894</v>
+      </c>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>total cost of revenues</t>
+        </is>
+      </c>
+      <c r="V58" t="n">
+        <v>962</v>
+      </c>
+      <c r="W58" t="n">
+        <v>986</v>
+      </c>
+      <c r="X58" t="n">
+        <v>910</v>
+      </c>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>automotive segment [member]</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>total revenues</t>
+        </is>
+      </c>
+      <c r="V61" t="n">
+        <v>9895</v>
+      </c>
+      <c r="W61" t="n">
+        <v>11157</v>
+      </c>
+      <c r="X61" t="n">
+        <v>12951</v>
+      </c>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="n">
+        <v>2918</v>
+      </c>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>services and other [member]</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>gross profit</t>
+        </is>
+      </c>
+      <c r="V64" t="n">
+        <v>2316</v>
+      </c>
+      <c r="W64" t="n">
+        <v>2864</v>
+      </c>
+      <c r="X64" t="n">
+        <v>3657</v>
+      </c>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>energy generation and storage segment [member]</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="n">
+        <v>3802</v>
+      </c>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>total revenues</t>
+        </is>
+      </c>
+      <c r="V68" t="n">
+        <v>494</v>
+      </c>
+      <c r="W68" t="n">
+        <v>801</v>
+      </c>
+      <c r="X68" t="n">
+        <v>806</v>
+      </c>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="n">
+        <v>3906</v>
+      </c>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr"/>
+      <c r="AC70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>gross profit</t>
+        </is>
+      </c>
+      <c r="V71" t="n">
+        <v>-101</v>
+      </c>
+      <c r="W71" t="n">
+        <v>20</v>
+      </c>
+      <c r="X71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/input/Financial Statement TSLA/Compiled Income Statement-TSLA.xlsx
+++ b/input/Financial Statement TSLA/Compiled Income Statement-TSLA.xlsx
@@ -727,93 +727,133 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>total automotive revenues</t>
+          <t>total revenues</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9641300</v>
+        <v>11758751</v>
       </c>
       <c r="C6" t="n">
-        <v>2735317</v>
+        <v>3408751</v>
       </c>
       <c r="D6" t="n">
-        <v>3357681</v>
+        <v>4002231</v>
       </c>
       <c r="E6" t="n">
-        <v>6098766</v>
+        <v>6824413</v>
       </c>
       <c r="F6" t="n">
-        <v>12416217</v>
+        <v>14636855</v>
       </c>
       <c r="G6" t="n">
-        <v>18514983</v>
+        <v>21461268</v>
       </c>
       <c r="H6" t="n">
-        <v>3723861</v>
+        <v>4541464</v>
       </c>
       <c r="I6" t="n">
-        <v>5376389</v>
+        <v>6349676</v>
       </c>
       <c r="J6" t="n">
-        <v>5353</v>
+        <v>6303</v>
       </c>
       <c r="K6" t="n">
-        <v>15468</v>
+        <v>18275</v>
       </c>
       <c r="L6" t="n">
-        <v>20821</v>
+        <v>24578</v>
       </c>
       <c r="M6" t="n">
-        <v>5132</v>
+        <v>5985</v>
       </c>
       <c r="N6" t="n">
-        <v>5179</v>
+        <v>6036</v>
       </c>
       <c r="O6" t="n">
-        <v>7611</v>
+        <v>8771</v>
       </c>
       <c r="P6" t="n">
-        <v>19625</v>
+        <v>22765</v>
       </c>
       <c r="Q6" t="n">
-        <v>27236</v>
-      </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
+        <v>31536</v>
+      </c>
+      <c r="R6" t="n">
+        <v>10389</v>
+      </c>
+      <c r="S6" t="n">
+        <v>11958</v>
+      </c>
+      <c r="T6" t="n">
+        <v>13757</v>
+      </c>
+      <c r="U6" t="n">
+        <v>40066</v>
+      </c>
+      <c r="V6" t="n">
+        <v>53823</v>
+      </c>
+      <c r="W6" t="n">
+        <v>18756</v>
+      </c>
+      <c r="X6" t="n">
+        <v>16934</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>energy generation and storage</t>
+          <t>total automotive revenues</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1116266</v>
+        <v>9641300</v>
       </c>
       <c r="C7" t="n">
-        <v>410022</v>
+        <v>2735317</v>
       </c>
       <c r="D7" t="n">
-        <v>374408</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
+        <v>3357681</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6098766</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12416217</v>
+      </c>
+      <c r="G7" t="n">
+        <v>18514983</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3723861</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5376389</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5353</v>
+      </c>
+      <c r="K7" t="n">
+        <v>15468</v>
+      </c>
+      <c r="L7" t="n">
+        <v>20821</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5132</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5179</v>
+      </c>
+      <c r="O7" t="n">
+        <v>7611</v>
+      </c>
+      <c r="P7" t="n">
+        <v>19625</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>27236</v>
+      </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -825,189 +865,189 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>services and other</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1001185</v>
-      </c>
-      <c r="C8" t="n">
-        <v>263412</v>
-      </c>
-      <c r="D8" t="n">
-        <v>270142</v>
-      </c>
-      <c r="E8" t="n">
-        <v>326330</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1064711</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1391041</v>
-      </c>
-      <c r="H8" t="n">
-        <v>492942</v>
-      </c>
-      <c r="I8" t="n">
-        <v>605079</v>
-      </c>
-      <c r="J8" t="n">
-        <v>548</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1678</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2226</v>
-      </c>
-      <c r="M8" t="n">
-        <v>560</v>
-      </c>
-      <c r="N8" t="n">
-        <v>487</v>
-      </c>
-      <c r="O8" t="n">
-        <v>581</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1725</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2306</v>
-      </c>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>total revenues</t>
+          <t>services and other</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11758751</v>
+        <v>1001185</v>
       </c>
       <c r="C9" t="n">
-        <v>3408751</v>
+        <v>263412</v>
       </c>
       <c r="D9" t="n">
-        <v>4002231</v>
+        <v>270142</v>
       </c>
       <c r="E9" t="n">
-        <v>6824413</v>
+        <v>326330</v>
       </c>
       <c r="F9" t="n">
-        <v>14636855</v>
+        <v>1064711</v>
       </c>
       <c r="G9" t="n">
-        <v>21461268</v>
+        <v>1391041</v>
       </c>
       <c r="H9" t="n">
-        <v>4541464</v>
+        <v>492942</v>
       </c>
       <c r="I9" t="n">
-        <v>6349676</v>
+        <v>605079</v>
       </c>
       <c r="J9" t="n">
-        <v>6303</v>
+        <v>548</v>
       </c>
       <c r="K9" t="n">
-        <v>18275</v>
+        <v>1678</v>
       </c>
       <c r="L9" t="n">
-        <v>24578</v>
+        <v>2226</v>
       </c>
       <c r="M9" t="n">
-        <v>5985</v>
+        <v>560</v>
       </c>
       <c r="N9" t="n">
-        <v>6036</v>
+        <v>487</v>
       </c>
       <c r="O9" t="n">
-        <v>8771</v>
+        <v>581</v>
       </c>
       <c r="P9" t="n">
-        <v>22765</v>
+        <v>1725</v>
       </c>
       <c r="Q9" t="n">
-        <v>31536</v>
-      </c>
-      <c r="R9" t="n">
-        <v>10389</v>
-      </c>
-      <c r="S9" t="n">
-        <v>11958</v>
-      </c>
-      <c r="T9" t="n">
-        <v>13757</v>
-      </c>
-      <c r="U9" t="n">
-        <v>40066</v>
-      </c>
-      <c r="V9" t="n">
-        <v>53823</v>
-      </c>
-      <c r="W9" t="n">
-        <v>18756</v>
-      </c>
-      <c r="X9" t="n">
-        <v>16934</v>
-      </c>
+        <v>2306</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>cost of revenues</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>total cost of revenues</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9536264</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2952225</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3383301</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5300748</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12118499</v>
+      </c>
+      <c r="G10" t="n">
+        <v>17419247</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3975721</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5428630</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5112</v>
+      </c>
+      <c r="K10" t="n">
+        <v>15397</v>
+      </c>
+      <c r="L10" t="n">
+        <v>20509</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4751</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4769</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6708</v>
+      </c>
+      <c r="P10" t="n">
+        <v>18198</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>24906</v>
+      </c>
+      <c r="R10" t="n">
+        <v>8174</v>
+      </c>
+      <c r="S10" t="n">
+        <v>9074</v>
+      </c>
+      <c r="T10" t="n">
+        <v>10097</v>
+      </c>
+      <c r="U10" t="n">
+        <v>30120</v>
+      </c>
+      <c r="V10" t="n">
+        <v>40217</v>
+      </c>
+      <c r="W10" t="n">
+        <v>13296</v>
+      </c>
+      <c r="X10" t="n">
+        <v>12700</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>automotive sales</t>
+          <t>energy generation and storage</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6724480</v>
+        <v>1116266</v>
       </c>
       <c r="C11" t="n">
-        <v>2091397</v>
+        <v>410022</v>
       </c>
       <c r="D11" t="n">
-        <v>2529739</v>
+        <v>374408</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -1033,216 +1073,242 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>automotive leasing</t>
+          <t>gross profit</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>708224</v>
+        <v>2222487</v>
       </c>
       <c r="C12" t="n">
-        <v>104496</v>
+        <v>456526</v>
       </c>
       <c r="D12" t="n">
-        <v>136915</v>
+        <v>618930</v>
       </c>
       <c r="E12" t="n">
-        <v>119283</v>
+        <v>1523665</v>
       </c>
       <c r="F12" t="n">
-        <v>369142</v>
+        <v>2518356</v>
       </c>
       <c r="G12" t="n">
-        <v>488425</v>
+        <v>4042021</v>
       </c>
       <c r="H12" t="n">
-        <v>117092</v>
+        <v>565743</v>
       </c>
       <c r="I12" t="n">
-        <v>106322</v>
+        <v>921046</v>
       </c>
       <c r="J12" t="n">
-        <v>117</v>
+        <v>1191</v>
       </c>
       <c r="K12" t="n">
-        <v>342</v>
+        <v>2878</v>
       </c>
       <c r="L12" t="n">
-        <v>459</v>
+        <v>4069</v>
       </c>
       <c r="M12" t="n">
-        <v>122</v>
+        <v>1234</v>
       </c>
       <c r="N12" t="n">
-        <v>148</v>
+        <v>1267</v>
       </c>
       <c r="O12" t="n">
-        <v>145</v>
+        <v>2063</v>
       </c>
       <c r="P12" t="n">
-        <v>418</v>
+        <v>4567</v>
       </c>
       <c r="Q12" t="n">
-        <v>563</v>
-      </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
+        <v>6630</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2215</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2884</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3660</v>
+      </c>
+      <c r="U12" t="n">
+        <v>9946</v>
+      </c>
+      <c r="V12" t="n">
+        <v>13606</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5460</v>
+      </c>
+      <c r="X12" t="n">
+        <v>4234</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>total automotive cost of revenues</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7432704</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2195893</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2666654</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4525202</v>
-      </c>
-      <c r="F13" t="n">
-        <v>9648795</v>
-      </c>
-      <c r="G13" t="n">
-        <v>14173997</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2973301</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4360085</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4131</v>
-      </c>
-      <c r="K13" t="n">
-        <v>12267</v>
-      </c>
-      <c r="L13" t="n">
-        <v>16398</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3821</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3862</v>
-      </c>
-      <c r="O13" t="n">
-        <v>5506</v>
-      </c>
-      <c r="P13" t="n">
-        <v>14753</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>20259</v>
-      </c>
+          <t>operating expenses</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>energy generation and storage</t>
+          <t>research and development</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>874538</v>
+        <v>1378073</v>
       </c>
       <c r="C14" t="n">
-        <v>375363</v>
+        <v>367096</v>
       </c>
       <c r="D14" t="n">
-        <v>330273</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
+        <v>386129</v>
+      </c>
+      <c r="E14" t="n">
+        <v>350848</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1109522</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1460370</v>
+      </c>
+      <c r="H14" t="n">
+        <v>340174</v>
+      </c>
+      <c r="I14" t="n">
+        <v>323898</v>
+      </c>
+      <c r="J14" t="n">
+        <v>334</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1009</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1343</v>
+      </c>
+      <c r="M14" t="n">
+        <v>324</v>
+      </c>
+      <c r="N14" t="n">
+        <v>279</v>
+      </c>
+      <c r="O14" t="n">
+        <v>366</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1125</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1491</v>
+      </c>
+      <c r="R14" t="n">
+        <v>666</v>
+      </c>
+      <c r="S14" t="n">
+        <v>576</v>
+      </c>
+      <c r="T14" t="n">
+        <v>611</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1982</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2593</v>
+      </c>
+      <c r="W14" t="n">
+        <v>865</v>
+      </c>
+      <c r="X14" t="n">
+        <v>667</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>services and other</t>
+          <t>automotive leasing</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1229022</v>
+        <v>708224</v>
       </c>
       <c r="C15" t="n">
-        <v>380969</v>
+        <v>104496</v>
       </c>
       <c r="D15" t="n">
-        <v>386374</v>
+        <v>136915</v>
       </c>
       <c r="E15" t="n">
-        <v>444992</v>
+        <v>119283</v>
       </c>
       <c r="F15" t="n">
-        <v>1435362</v>
+        <v>369142</v>
       </c>
       <c r="G15" t="n">
-        <v>1880354</v>
+        <v>488425</v>
       </c>
       <c r="H15" t="n">
-        <v>685533</v>
+        <v>117092</v>
       </c>
       <c r="I15" t="n">
-        <v>743022</v>
+        <v>106322</v>
       </c>
       <c r="J15" t="n">
-        <v>667</v>
+        <v>117</v>
       </c>
       <c r="K15" t="n">
-        <v>2103</v>
+        <v>342</v>
       </c>
       <c r="L15" t="n">
-        <v>2770</v>
+        <v>459</v>
       </c>
       <c r="M15" t="n">
-        <v>648</v>
+        <v>122</v>
       </c>
       <c r="N15" t="n">
-        <v>558</v>
+        <v>148</v>
       </c>
       <c r="O15" t="n">
-        <v>644</v>
+        <v>145</v>
       </c>
       <c r="P15" t="n">
-        <v>2027</v>
+        <v>418</v>
       </c>
       <c r="Q15" t="n">
-        <v>2671</v>
+        <v>563</v>
       </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
@@ -1255,651 +1321,617 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>total cost of revenues</t>
+          <t>total automotive cost of revenues</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9536264</v>
+        <v>7432704</v>
       </c>
       <c r="C16" t="n">
-        <v>2952225</v>
+        <v>2195893</v>
       </c>
       <c r="D16" t="n">
-        <v>3383301</v>
+        <v>2666654</v>
       </c>
       <c r="E16" t="n">
-        <v>5300748</v>
+        <v>4525202</v>
       </c>
       <c r="F16" t="n">
-        <v>12118499</v>
+        <v>9648795</v>
       </c>
       <c r="G16" t="n">
-        <v>17419247</v>
+        <v>14173997</v>
       </c>
       <c r="H16" t="n">
-        <v>3975721</v>
+        <v>2973301</v>
       </c>
       <c r="I16" t="n">
-        <v>5428630</v>
+        <v>4360085</v>
       </c>
       <c r="J16" t="n">
-        <v>5112</v>
+        <v>4131</v>
       </c>
       <c r="K16" t="n">
-        <v>15397</v>
+        <v>12267</v>
       </c>
       <c r="L16" t="n">
-        <v>20509</v>
+        <v>16398</v>
       </c>
       <c r="M16" t="n">
-        <v>4751</v>
+        <v>3821</v>
       </c>
       <c r="N16" t="n">
-        <v>4769</v>
+        <v>3862</v>
       </c>
       <c r="O16" t="n">
-        <v>6708</v>
+        <v>5506</v>
       </c>
       <c r="P16" t="n">
-        <v>18198</v>
+        <v>14753</v>
       </c>
       <c r="Q16" t="n">
-        <v>24906</v>
-      </c>
-      <c r="R16" t="n">
-        <v>8174</v>
-      </c>
-      <c r="S16" t="n">
-        <v>9074</v>
-      </c>
-      <c r="T16" t="n">
-        <v>10097</v>
-      </c>
-      <c r="U16" t="n">
-        <v>30120</v>
-      </c>
-      <c r="V16" t="n">
-        <v>40217</v>
-      </c>
-      <c r="W16" t="n">
-        <v>13296</v>
-      </c>
-      <c r="X16" t="n">
-        <v>12700</v>
-      </c>
+        <v>20259</v>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>gross profit</t>
+          <t>selling, general and administrative</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2222487</v>
+        <v>2476500</v>
       </c>
       <c r="C17" t="n">
-        <v>456526</v>
+        <v>686404</v>
       </c>
       <c r="D17" t="n">
-        <v>618930</v>
+        <v>750759</v>
       </c>
       <c r="E17" t="n">
-        <v>1523665</v>
+        <v>729876</v>
       </c>
       <c r="F17" t="n">
-        <v>2518356</v>
+        <v>2104615</v>
       </c>
       <c r="G17" t="n">
-        <v>4042021</v>
+        <v>2834491</v>
       </c>
       <c r="H17" t="n">
-        <v>565743</v>
+        <v>703929</v>
       </c>
       <c r="I17" t="n">
-        <v>921046</v>
+        <v>647261</v>
       </c>
       <c r="J17" t="n">
-        <v>1191</v>
+        <v>596</v>
       </c>
       <c r="K17" t="n">
-        <v>2878</v>
+        <v>2050</v>
       </c>
       <c r="L17" t="n">
-        <v>4069</v>
+        <v>2646</v>
       </c>
       <c r="M17" t="n">
-        <v>1234</v>
+        <v>627</v>
       </c>
       <c r="N17" t="n">
-        <v>1267</v>
+        <v>661</v>
       </c>
       <c r="O17" t="n">
-        <v>2063</v>
+        <v>888</v>
       </c>
       <c r="P17" t="n">
-        <v>4567</v>
+        <v>2257</v>
       </c>
       <c r="Q17" t="n">
-        <v>6630</v>
+        <v>3145</v>
       </c>
       <c r="R17" t="n">
-        <v>2215</v>
+        <v>1056</v>
       </c>
       <c r="S17" t="n">
-        <v>2884</v>
+        <v>973</v>
       </c>
       <c r="T17" t="n">
-        <v>3660</v>
+        <v>994</v>
       </c>
       <c r="U17" t="n">
-        <v>9946</v>
+        <v>3523</v>
       </c>
       <c r="V17" t="n">
-        <v>13606</v>
+        <v>4517</v>
       </c>
       <c r="W17" t="n">
-        <v>5460</v>
+        <v>992</v>
       </c>
       <c r="X17" t="n">
-        <v>4234</v>
+        <v>961</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>operating expenses</t>
+          <t>restructuring and other</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>103434</v>
+      </c>
+      <c r="E18" t="n">
+        <v>26184</v>
+      </c>
+      <c r="F18" t="n">
+        <v>109049</v>
+      </c>
+      <c r="G18" t="n">
+        <v>135233</v>
+      </c>
+      <c r="H18" t="n">
+        <v>43471</v>
+      </c>
+      <c r="I18" t="n">
+        <v>117345</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>149</v>
+      </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="R18" t="n">
+        <v>-101</v>
+      </c>
+      <c r="S18" t="n">
+        <v>23</v>
+      </c>
+      <c r="T18" t="n">
+        <v>51</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-78</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-27</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>research and development</t>
+          <t>automotive sales</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1378073</v>
+        <v>6724480</v>
       </c>
       <c r="C19" t="n">
-        <v>367096</v>
+        <v>2091397</v>
       </c>
       <c r="D19" t="n">
-        <v>386129</v>
-      </c>
-      <c r="E19" t="n">
-        <v>350848</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1109522</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1460370</v>
-      </c>
-      <c r="H19" t="n">
-        <v>340174</v>
-      </c>
-      <c r="I19" t="n">
-        <v>323898</v>
-      </c>
-      <c r="J19" t="n">
-        <v>334</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1009</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1343</v>
-      </c>
-      <c r="M19" t="n">
-        <v>324</v>
-      </c>
-      <c r="N19" t="n">
-        <v>279</v>
-      </c>
-      <c r="O19" t="n">
-        <v>366</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1125</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1491</v>
-      </c>
-      <c r="R19" t="n">
-        <v>666</v>
-      </c>
-      <c r="S19" t="n">
-        <v>576</v>
-      </c>
-      <c r="T19" t="n">
-        <v>611</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1982</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2593</v>
-      </c>
-      <c r="W19" t="n">
-        <v>865</v>
-      </c>
-      <c r="X19" t="n">
-        <v>667</v>
-      </c>
+        <v>2529739</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>income from operations</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+          <t>services and other</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1229022</v>
+      </c>
+      <c r="C20" t="n">
+        <v>380969</v>
+      </c>
+      <c r="D20" t="n">
+        <v>386374</v>
+      </c>
       <c r="E20" t="n">
-        <v>416757</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+        <v>444992</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1435362</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1880354</v>
+      </c>
+      <c r="H20" t="n">
+        <v>685533</v>
+      </c>
+      <c r="I20" t="n">
+        <v>743022</v>
+      </c>
       <c r="J20" t="n">
-        <v>261</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+        <v>667</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2103</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2770</v>
+      </c>
       <c r="M20" t="n">
-        <v>283</v>
+        <v>648</v>
       </c>
       <c r="N20" t="n">
-        <v>327</v>
+        <v>558</v>
       </c>
       <c r="O20" t="n">
-        <v>809</v>
+        <v>644</v>
       </c>
       <c r="P20" t="n">
-        <v>1185</v>
+        <v>2027</v>
       </c>
       <c r="Q20" t="n">
-        <v>1994</v>
-      </c>
-      <c r="R20" t="n">
-        <v>594</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1312</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2004</v>
-      </c>
-      <c r="U20" t="n">
-        <v>4519</v>
-      </c>
-      <c r="V20" t="n">
-        <v>6523</v>
-      </c>
-      <c r="W20" t="n">
-        <v>3603</v>
-      </c>
-      <c r="X20" t="n">
-        <v>2464</v>
-      </c>
+        <v>2671</v>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>selling, general and administrative</t>
+          <t>total operating expenses</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2476500</v>
+        <v>3854573</v>
       </c>
       <c r="C21" t="n">
-        <v>686404</v>
+        <v>1053500</v>
       </c>
       <c r="D21" t="n">
-        <v>750759</v>
+        <v>1240322</v>
       </c>
       <c r="E21" t="n">
-        <v>729876</v>
+        <v>1106908</v>
       </c>
       <c r="F21" t="n">
-        <v>2104615</v>
+        <v>3323186</v>
       </c>
       <c r="G21" t="n">
-        <v>2834491</v>
+        <v>4430094</v>
       </c>
       <c r="H21" t="n">
-        <v>703929</v>
+        <v>1087574</v>
       </c>
       <c r="I21" t="n">
-        <v>647261</v>
+        <v>1088504</v>
       </c>
       <c r="J21" t="n">
-        <v>596</v>
+        <v>930</v>
       </c>
       <c r="K21" t="n">
-        <v>2050</v>
+        <v>3208</v>
       </c>
       <c r="L21" t="n">
-        <v>2646</v>
+        <v>4138</v>
       </c>
       <c r="M21" t="n">
-        <v>627</v>
+        <v>951</v>
       </c>
       <c r="N21" t="n">
-        <v>661</v>
+        <v>940</v>
       </c>
       <c r="O21" t="n">
-        <v>888</v>
+        <v>1254</v>
       </c>
       <c r="P21" t="n">
-        <v>2257</v>
+        <v>3382</v>
       </c>
       <c r="Q21" t="n">
-        <v>3145</v>
+        <v>4636</v>
       </c>
       <c r="R21" t="n">
-        <v>1056</v>
+        <v>1621</v>
       </c>
       <c r="S21" t="n">
-        <v>973</v>
+        <v>1572</v>
       </c>
       <c r="T21" t="n">
-        <v>994</v>
+        <v>1656</v>
       </c>
       <c r="U21" t="n">
-        <v>3523</v>
+        <v>5427</v>
       </c>
       <c r="V21" t="n">
-        <v>4517</v>
+        <v>7083</v>
       </c>
       <c r="W21" t="n">
-        <v>992</v>
+        <v>1857</v>
       </c>
       <c r="X21" t="n">
-        <v>961</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>restructuring and other</t>
+          <t>income from operations</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>103434</v>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>26184</v>
-      </c>
-      <c r="F22" t="n">
-        <v>109049</v>
-      </c>
-      <c r="G22" t="n">
-        <v>135233</v>
-      </c>
-      <c r="H22" t="n">
-        <v>43471</v>
-      </c>
-      <c r="I22" t="n">
-        <v>117345</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>416757</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>261</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>149</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>283</v>
+      </c>
+      <c r="N22" t="n">
+        <v>327</v>
+      </c>
+      <c r="O22" t="n">
+        <v>809</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1185</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1994</v>
+      </c>
       <c r="R22" t="n">
-        <v>-101</v>
+        <v>594</v>
       </c>
       <c r="S22" t="n">
-        <v>23</v>
+        <v>1312</v>
       </c>
       <c r="T22" t="n">
-        <v>51</v>
+        <v>2004</v>
       </c>
       <c r="U22" t="n">
-        <v>-78</v>
+        <v>4519</v>
       </c>
       <c r="V22" t="n">
-        <v>-27</v>
+        <v>6523</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>3603</v>
       </c>
       <c r="X22" t="n">
-        <v>142</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>total operating expenses</t>
+          <t>energy generation and storage</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3854573</v>
+        <v>874538</v>
       </c>
       <c r="C23" t="n">
-        <v>1053500</v>
+        <v>375363</v>
       </c>
       <c r="D23" t="n">
-        <v>1240322</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1106908</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3323186</v>
-      </c>
-      <c r="G23" t="n">
-        <v>4430094</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1087574</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1088504</v>
-      </c>
-      <c r="J23" t="n">
-        <v>930</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3208</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4138</v>
-      </c>
-      <c r="M23" t="n">
-        <v>951</v>
-      </c>
-      <c r="N23" t="n">
-        <v>940</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1254</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3382</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4636</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1621</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1572</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1656</v>
-      </c>
-      <c r="U23" t="n">
-        <v>5427</v>
-      </c>
-      <c r="V23" t="n">
-        <v>7083</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1857</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1770</v>
-      </c>
+        <v>330273</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>loss from operations</t>
+          <t>interest income</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1632086</v>
+        <v>19686</v>
       </c>
       <c r="C24" t="n">
-        <v>-596974</v>
+        <v>5214</v>
       </c>
       <c r="D24" t="n">
-        <v>-621392</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+        <v>5064</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6907</v>
+      </c>
+      <c r="F24" t="n">
+        <v>17626</v>
+      </c>
       <c r="G24" t="n">
-        <v>-388073</v>
+        <v>24533</v>
       </c>
       <c r="H24" t="n">
-        <v>-521831</v>
+        <v>8762</v>
       </c>
       <c r="I24" t="n">
-        <v>-167458</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>10362</v>
+      </c>
+      <c r="J24" t="n">
+        <v>15</v>
+      </c>
+      <c r="K24" t="n">
+        <v>29</v>
+      </c>
       <c r="L24" t="n">
-        <v>-69</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
+        <v>44</v>
+      </c>
+      <c r="M24" t="n">
+        <v>10</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>6</v>
+      </c>
+      <c r="P24" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>30</v>
+      </c>
+      <c r="R24" t="n">
+        <v>10</v>
+      </c>
+      <c r="S24" t="n">
+        <v>11</v>
+      </c>
+      <c r="T24" t="n">
+        <v>10</v>
+      </c>
+      <c r="U24" t="n">
+        <v>46</v>
+      </c>
+      <c r="V24" t="n">
+        <v>56</v>
+      </c>
+      <c r="W24" t="n">
+        <v>28</v>
+      </c>
+      <c r="X24" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>interest income</t>
+          <t>interest expense</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19686</v>
+        <v>-471259</v>
       </c>
       <c r="C25" t="n">
-        <v>5214</v>
+        <v>-149546</v>
       </c>
       <c r="D25" t="n">
-        <v>5064</v>
+        <v>-163582</v>
       </c>
       <c r="E25" t="n">
-        <v>6907</v>
+        <v>-175220</v>
       </c>
       <c r="F25" t="n">
-        <v>17626</v>
+        <v>-487851</v>
       </c>
       <c r="G25" t="n">
-        <v>24533</v>
+        <v>-663071</v>
       </c>
       <c r="H25" t="n">
-        <v>8762</v>
+        <v>-157453</v>
       </c>
       <c r="I25" t="n">
-        <v>10362</v>
+        <v>-171979</v>
       </c>
       <c r="J25" t="n">
-        <v>15</v>
+        <v>-185</v>
       </c>
       <c r="K25" t="n">
-        <v>29</v>
+        <v>-500</v>
       </c>
       <c r="L25" t="n">
-        <v>44</v>
+        <v>-685</v>
       </c>
       <c r="M25" t="n">
-        <v>10</v>
+        <v>-169</v>
       </c>
       <c r="N25" t="n">
-        <v>8</v>
+        <v>-170</v>
       </c>
       <c r="O25" t="n">
-        <v>6</v>
+        <v>-163</v>
       </c>
       <c r="P25" t="n">
-        <v>24</v>
+        <v>-585</v>
       </c>
       <c r="Q25" t="n">
-        <v>30</v>
+        <v>-748</v>
       </c>
       <c r="R25" t="n">
-        <v>10</v>
+        <v>-99</v>
       </c>
       <c r="S25" t="n">
-        <v>11</v>
+        <v>-75</v>
       </c>
       <c r="T25" t="n">
-        <v>10</v>
+        <v>-126</v>
       </c>
       <c r="U25" t="n">
-        <v>46</v>
+        <v>-245</v>
       </c>
       <c r="V25" t="n">
-        <v>56</v>
+        <v>-371</v>
       </c>
       <c r="W25" t="n">
-        <v>28</v>
+        <v>-61</v>
       </c>
       <c r="X25" t="n">
-        <v>26</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="26">
@@ -1951,77 +1983,53 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>interest expense</t>
+          <t>other income, net</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-471259</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-149546</v>
-      </c>
+        <v>-125373</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>-163582</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-175220</v>
-      </c>
-      <c r="F27" t="n">
-        <v>-487851</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-663071</v>
-      </c>
-      <c r="H27" t="n">
-        <v>-157453</v>
-      </c>
+        <v>50911</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>-171979</v>
+        <v>-40756</v>
       </c>
       <c r="J27" t="n">
-        <v>-185</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-500</v>
-      </c>
-      <c r="L27" t="n">
-        <v>-685</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>-169</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-170</v>
-      </c>
+        <v>-54</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="n">
-        <v>-163</v>
+        <v>-97</v>
       </c>
       <c r="P27" t="n">
-        <v>-585</v>
+        <v>-25</v>
       </c>
       <c r="Q27" t="n">
-        <v>-748</v>
-      </c>
-      <c r="R27" t="n">
-        <v>-99</v>
-      </c>
-      <c r="S27" t="n">
-        <v>-75</v>
-      </c>
+        <v>-122</v>
+      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="n">
-        <v>-126</v>
-      </c>
-      <c r="U27" t="n">
-        <v>-245</v>
-      </c>
-      <c r="V27" t="n">
-        <v>-371</v>
-      </c>
+        <v>-6</v>
+      </c>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
       <c r="W27" t="n">
-        <v>-61</v>
+        <v>56</v>
       </c>
       <c r="X27" t="n">
-        <v>-44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
@@ -2085,78 +2093,112 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>other income, net</t>
+          <t>provision for income taxes</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-125373</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
+        <v>31546</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5605</v>
+      </c>
       <c r="D29" t="n">
-        <v>50911</v>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+        <v>13707</v>
+      </c>
+      <c r="E29" t="n">
+        <v>16647</v>
+      </c>
+      <c r="F29" t="n">
+        <v>41190</v>
+      </c>
+      <c r="G29" t="n">
+        <v>57837</v>
+      </c>
+      <c r="H29" t="n">
+        <v>22873</v>
+      </c>
       <c r="I29" t="n">
-        <v>-40756</v>
+        <v>19431</v>
       </c>
       <c r="J29" t="n">
-        <v>85</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K29" t="n">
+        <v>84</v>
+      </c>
+      <c r="L29" t="n">
+        <v>110</v>
+      </c>
       <c r="M29" t="n">
-        <v>-54</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>21</v>
+      </c>
       <c r="O29" t="n">
-        <v>-97</v>
+        <v>186</v>
       </c>
       <c r="P29" t="n">
-        <v>-25</v>
+        <v>106</v>
       </c>
       <c r="Q29" t="n">
-        <v>-122</v>
-      </c>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
+        <v>292</v>
+      </c>
+      <c r="R29" t="n">
+        <v>69</v>
+      </c>
+      <c r="S29" t="n">
+        <v>115</v>
+      </c>
       <c r="T29" t="n">
-        <v>-6</v>
-      </c>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+        <v>223</v>
+      </c>
+      <c r="U29" t="n">
+        <v>476</v>
+      </c>
+      <c r="V29" t="n">
+        <v>699</v>
+      </c>
       <c r="W29" t="n">
-        <v>56</v>
+        <v>346</v>
       </c>
       <c r="X29" t="n">
-        <v>28</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>other expense, net</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
+          <t>loss from operations</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-1632086</v>
+      </c>
       <c r="C30" t="n">
-        <v>-37716</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>-596974</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-621392</v>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>-388073</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-521831</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-167458</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>-69</v>
+      </c>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
-        <v>-15</v>
-      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
@@ -2171,173 +2213,187 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>loss before income taxes</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-2209032</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-779022</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-728999</v>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>net income</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>254673</v>
+      </c>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="n">
-        <v>-1004745</v>
-      </c>
-      <c r="H31" t="n">
-        <v>-644772</v>
-      </c>
-      <c r="I31" t="n">
-        <v>-369831</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>150</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>-665</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>68</v>
+      </c>
+      <c r="N31" t="n">
+        <v>129</v>
+      </c>
+      <c r="O31" t="n">
+        <v>369</v>
+      </c>
+      <c r="P31" t="n">
+        <v>493</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>862</v>
+      </c>
+      <c r="R31" t="n">
+        <v>464</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1178</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1659</v>
+      </c>
+      <c r="U31" t="n">
+        <v>3985</v>
+      </c>
+      <c r="V31" t="n">
+        <v>5644</v>
+      </c>
+      <c r="W31" t="n">
+        <v>3280</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2269</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>net income</t>
+          <t>net income attributable to noncontrolling interests and redeemable noncontrolling interests in subsidiaries</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="n">
-        <v>254673</v>
-      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>34490</v>
+      </c>
+      <c r="I32" t="n">
+        <v>19072</v>
+      </c>
       <c r="J32" t="n">
-        <v>150</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="K32" t="n">
+        <v>80</v>
+      </c>
+      <c r="L32" t="n">
+        <v>87</v>
+      </c>
       <c r="M32" t="n">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="N32" t="n">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="O32" t="n">
-        <v>369</v>
+        <v>38</v>
       </c>
       <c r="P32" t="n">
-        <v>493</v>
+        <v>103</v>
       </c>
       <c r="Q32" t="n">
-        <v>862</v>
+        <v>141</v>
       </c>
       <c r="R32" t="n">
-        <v>464</v>
+        <v>26</v>
       </c>
       <c r="S32" t="n">
-        <v>1178</v>
+        <v>36</v>
       </c>
       <c r="T32" t="n">
-        <v>1659</v>
+        <v>41</v>
       </c>
       <c r="U32" t="n">
-        <v>3985</v>
+        <v>84</v>
       </c>
       <c r="V32" t="n">
-        <v>5644</v>
+        <v>125</v>
       </c>
       <c r="W32" t="n">
-        <v>3280</v>
+        <v>-38</v>
       </c>
       <c r="X32" t="n">
-        <v>2269</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>net income attributable to noncontrolling interests and redeemable noncontrolling interests in subsidiaries</t>
+          <t>net income attributable to common stockholders</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>311516</v>
+      </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="n">
-        <v>34490</v>
-      </c>
-      <c r="I33" t="n">
-        <v>19072</v>
-      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>7</v>
-      </c>
-      <c r="K33" t="n">
-        <v>80</v>
-      </c>
-      <c r="L33" t="n">
-        <v>87</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="N33" t="n">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="O33" t="n">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="P33" t="n">
-        <v>103</v>
+        <v>390</v>
       </c>
       <c r="Q33" t="n">
-        <v>141</v>
+        <v>721</v>
       </c>
       <c r="R33" t="n">
-        <v>26</v>
+        <v>438</v>
       </c>
       <c r="S33" t="n">
-        <v>36</v>
+        <v>1142</v>
       </c>
       <c r="T33" t="n">
-        <v>41</v>
+        <v>1618</v>
       </c>
       <c r="U33" t="n">
-        <v>84</v>
+        <v>3901</v>
       </c>
       <c r="V33" t="n">
-        <v>125</v>
+        <v>5519</v>
       </c>
       <c r="W33" t="n">
-        <v>-38</v>
+        <v>3318</v>
       </c>
       <c r="X33" t="n">
-        <v>10</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>net loss attributable to noncontrolling interests and redeemable noncontrolling interests in subsidiaries</t>
+          <t>less: buy-out of noncontrolling interest</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -2345,9 +2401,7 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="n">
-        <v>-86491</v>
-      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -2355,193 +2409,141 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
+      <c r="O34" t="n">
+        <v>31</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>31</v>
+      </c>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="n">
+        <v>-5</v>
+      </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>provision for income taxes</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>31546</v>
-      </c>
-      <c r="C35" t="n">
-        <v>5605</v>
-      </c>
-      <c r="D35" t="n">
-        <v>13707</v>
-      </c>
-      <c r="E35" t="n">
-        <v>16647</v>
-      </c>
-      <c r="F35" t="n">
-        <v>41190</v>
-      </c>
-      <c r="G35" t="n">
-        <v>57837</v>
-      </c>
-      <c r="H35" t="n">
-        <v>22873</v>
-      </c>
-      <c r="I35" t="n">
-        <v>19431</v>
-      </c>
-      <c r="J35" t="n">
-        <v>26</v>
-      </c>
-      <c r="K35" t="n">
-        <v>84</v>
-      </c>
-      <c r="L35" t="n">
-        <v>110</v>
-      </c>
-      <c r="M35" t="n">
-        <v>2</v>
-      </c>
-      <c r="N35" t="n">
-        <v>21</v>
-      </c>
-      <c r="O35" t="n">
-        <v>186</v>
-      </c>
-      <c r="P35" t="n">
-        <v>106</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>292</v>
-      </c>
-      <c r="R35" t="n">
-        <v>69</v>
-      </c>
-      <c r="S35" t="n">
-        <v>115</v>
-      </c>
-      <c r="T35" t="n">
-        <v>223</v>
-      </c>
-      <c r="U35" t="n">
-        <v>476</v>
-      </c>
-      <c r="V35" t="n">
-        <v>699</v>
-      </c>
-      <c r="W35" t="n">
-        <v>346</v>
-      </c>
-      <c r="X35" t="n">
-        <v>205</v>
+          <t>net income per share of common stock attributable to common stockholders</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>net income attributable to common stockholders</t>
+          <t>other expense, net</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>-37716</v>
+      </c>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="n">
-        <v>311516</v>
-      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>143</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>16</v>
-      </c>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>104</v>
-      </c>
-      <c r="O36" t="n">
-        <v>331</v>
-      </c>
-      <c r="P36" t="n">
-        <v>390</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>721</v>
-      </c>
-      <c r="R36" t="n">
-        <v>438</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1142</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1618</v>
-      </c>
-      <c r="U36" t="n">
-        <v>3901</v>
-      </c>
-      <c r="V36" t="n">
-        <v>5519</v>
-      </c>
-      <c r="W36" t="n">
-        <v>3318</v>
-      </c>
-      <c r="X36" t="n">
-        <v>2259</v>
-      </c>
+        <v>-15</v>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>less: buy-out of noncontrolling interest</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+          <t>loss before income taxes</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-2209032</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-779022</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-728999</v>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>-1004745</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-644772</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-369831</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>-665</v>
+      </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
-      <c r="O37" t="n">
-        <v>31</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>31</v>
-      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="n">
-        <v>-5</v>
-      </c>
+      <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>net income per share of common stock attributable to common stockholders</t>
+          <t>net income used in computing net income per share of common stock</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -2557,84 +2559,180 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
+      <c r="O38" t="n">
+        <v>300</v>
+      </c>
+      <c r="P38" t="n">
+        <v>390</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>690</v>
+      </c>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
+      <c r="T38" t="n">
+        <v>1618</v>
+      </c>
+      <c r="U38" t="n">
+        <v>3906</v>
+      </c>
+      <c r="V38" t="n">
+        <v>5524</v>
+      </c>
       <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="X38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>automotive revenues [member]</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-11.83</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-4.19</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-4.22</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-7.54</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-5.72</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-2.31</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-5.72</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-4.92</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U39" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="V39" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="W39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="X39" t="n">
+        <v>2.18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>automobiles [member]</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
+          <t>diluted</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-11.83</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-4.19</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-4.22</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-7.47</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-5.72</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-2.31</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-4.92</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U40" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="V40" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="W40" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2683,21 +2781,13 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>net loss attributable to noncontrolling interests and redeemable noncontrolling interests in subsidiaries</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>-279178</v>
-      </c>
-      <c r="C42" t="n">
-        <v>-75076</v>
-      </c>
-      <c r="D42" t="n">
-        <v>-25167</v>
-      </c>
-      <c r="E42" t="n">
-        <v>-56843</v>
-      </c>
+          <t>weighted average shares used in computing net income per share of common stock</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
@@ -2716,60 +2806,106 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>net income used in computing net income per share of common stock</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>165758</v>
+      </c>
+      <c r="C43" t="n">
+        <v>169146</v>
+      </c>
+      <c r="D43" t="n">
+        <v>169997</v>
+      </c>
+      <c r="E43" t="n">
+        <v>170893</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-368</v>
+      </c>
+      <c r="G43" t="n">
+        <v>170525</v>
+      </c>
+      <c r="H43" t="n">
+        <v>172989</v>
+      </c>
+      <c r="I43" t="n">
+        <v>176654</v>
+      </c>
+      <c r="J43" t="n">
+        <v>179</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>177</v>
+      </c>
+      <c r="M43" t="n">
+        <v>183</v>
+      </c>
+      <c r="N43" t="n">
+        <v>186</v>
+      </c>
       <c r="O43" t="n">
-        <v>300</v>
+        <v>937</v>
       </c>
       <c r="P43" t="n">
-        <v>390</v>
+        <v>-4</v>
       </c>
       <c r="Q43" t="n">
-        <v>690</v>
-      </c>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
+        <v>933</v>
+      </c>
+      <c r="R43" t="n">
+        <v>961</v>
+      </c>
+      <c r="S43" t="n">
+        <v>971</v>
+      </c>
       <c r="T43" t="n">
-        <v>1618</v>
+        <v>998</v>
       </c>
       <c r="U43" t="n">
-        <v>3906</v>
+        <v>-12</v>
       </c>
       <c r="V43" t="n">
-        <v>5524</v>
-      </c>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
+        <v>986</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1034</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1037</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>net income per share of common stock attributable to common stockholders, basic and diluted</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+          <t>net loss attributable to noncontrolling interests and redeemable noncontrolling interests in subsidiaries</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-279178</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-75076</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-25167</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-56843</v>
+      </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
@@ -2793,7 +2929,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>automotive sales</t>
+          <t>net loss attributable to noncontrolling interests and redeemable noncontrolling interests in subsidiaries</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -2801,7 +2937,9 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>-86491</v>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2817,12 +2955,8 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
-      <c r="W45" t="n">
-        <v>15514</v>
-      </c>
-      <c r="X45" t="n">
-        <v>13670</v>
-      </c>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2871,37 +3005,83 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>net loss per share of common stock attributable to common stockholders</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
+          <t>diluted</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>165758</v>
+      </c>
+      <c r="C47" t="n">
+        <v>169146</v>
+      </c>
+      <c r="D47" t="n">
+        <v>169997</v>
+      </c>
+      <c r="E47" t="n">
+        <v>178196</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-7671</v>
+      </c>
+      <c r="G47" t="n">
+        <v>170525</v>
+      </c>
+      <c r="H47" t="n">
+        <v>172989</v>
+      </c>
+      <c r="I47" t="n">
+        <v>176654</v>
+      </c>
+      <c r="J47" t="n">
+        <v>184</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-7</v>
+      </c>
+      <c r="L47" t="n">
+        <v>177</v>
+      </c>
+      <c r="M47" t="n">
+        <v>199</v>
+      </c>
+      <c r="N47" t="n">
+        <v>207</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1105</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-22</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1083</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1133</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1119</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1123</v>
+      </c>
+      <c r="U47" t="n">
+        <v>6</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1129</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1157</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1155</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>automotive regulatory credits</t>
+          <t>automotive revenues [member]</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -2925,17 +3105,17 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
-      <c r="W48" t="n">
-        <v>679</v>
-      </c>
-      <c r="X48" t="n">
-        <v>344</v>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>automotive leasing</t>
+          <t>net loss per share of common stock attributable to common stockholders</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -2954,28 +3134,18 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="n">
-        <v>297</v>
-      </c>
-      <c r="S49" t="n">
-        <v>332</v>
-      </c>
-      <c r="T49" t="n">
-        <v>385</v>
-      </c>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
-      <c r="W49" t="n">
-        <v>668</v>
-      </c>
-      <c r="X49" t="n">
-        <v>588</v>
-      </c>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>weighted average shares used in computing net income per share of common stock</t>
+          <t>net income per share of common stock attributable to common stockholders, basic and diluted</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -3000,92 +3170,46 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="X50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>basic</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>-11.83</v>
-      </c>
-      <c r="C51" t="n">
-        <v>-4.19</v>
-      </c>
-      <c r="D51" t="n">
-        <v>-4.22</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="F51" t="n">
-        <v>-7.54</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-5.72</v>
-      </c>
-      <c r="H51" t="n">
-        <v>-4.1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-5.72</v>
-      </c>
-      <c r="L51" t="n">
-        <v>-4.92</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="R51" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="S51" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="T51" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U51" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="V51" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="W51" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="X51" t="n">
-        <v>2.18</v>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>total revenues</t>
+          <t>automobiles [member]</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -3104,15 +3228,9 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="n">
-        <v>9002</v>
-      </c>
-      <c r="S52" t="n">
-        <v>10206</v>
-      </c>
-      <c r="T52" t="n">
-        <v>12057</v>
-      </c>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
@@ -3121,83 +3239,41 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>diluted</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>-11.83</v>
-      </c>
-      <c r="C53" t="n">
-        <v>-4.19</v>
-      </c>
-      <c r="D53" t="n">
-        <v>-4.22</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F53" t="n">
-        <v>-7.47</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-5.72</v>
-      </c>
-      <c r="H53" t="n">
-        <v>-4.1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-5.7</v>
-      </c>
-      <c r="L53" t="n">
-        <v>-4.92</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="R53" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="S53" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U53" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="V53" t="n">
-        <v>4.9</v>
-      </c>
+          <t>automotive sales</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
       <c r="W53" t="n">
-        <v>2.86</v>
+        <v>15514</v>
       </c>
       <c r="X53" t="n">
-        <v>1.95</v>
+        <v>13670</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>automotive regulatory credits [member]</t>
+          <t>automotive sales [member]</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -3227,7 +3303,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>total automotive revenues</t>
+          <t>weighted average shares used in computing net loss per share of common stock</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -3251,17 +3327,13 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
-      <c r="W55" t="n">
-        <v>16861</v>
-      </c>
-      <c r="X55" t="n">
-        <v>14602</v>
-      </c>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>weighted average shares used in computing net loss per share of common stock</t>
+          <t>automotive regulatory credits</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -3285,89 +3357,79 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
+      <c r="W56" t="n">
+        <v>679</v>
+      </c>
+      <c r="X56" t="n">
+        <v>344</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>basic</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>165758</v>
-      </c>
-      <c r="C57" t="n">
-        <v>169146</v>
-      </c>
-      <c r="D57" t="n">
-        <v>169997</v>
-      </c>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
-        <v>170893</v>
+        <v>5878305</v>
       </c>
       <c r="F57" t="n">
-        <v>-368</v>
+        <v>11753217</v>
       </c>
       <c r="G57" t="n">
-        <v>170525</v>
+        <v>17631522</v>
       </c>
       <c r="H57" t="n">
-        <v>172989</v>
+        <v>3508741</v>
       </c>
       <c r="I57" t="n">
-        <v>176654</v>
+        <v>5168027</v>
       </c>
       <c r="J57" t="n">
-        <v>179</v>
+        <v>5132</v>
       </c>
       <c r="K57" t="n">
-        <v>-2</v>
+        <v>14820</v>
       </c>
       <c r="L57" t="n">
-        <v>177</v>
+        <v>19952</v>
       </c>
       <c r="M57" t="n">
-        <v>183</v>
+        <v>4893</v>
       </c>
       <c r="N57" t="n">
-        <v>186</v>
+        <v>4911</v>
       </c>
       <c r="O57" t="n">
-        <v>937</v>
+        <v>7346</v>
       </c>
       <c r="P57" t="n">
-        <v>-4</v>
+        <v>18838</v>
       </c>
       <c r="Q57" t="n">
-        <v>933</v>
+        <v>26184</v>
       </c>
       <c r="R57" t="n">
-        <v>961</v>
+        <v>8705</v>
       </c>
       <c r="S57" t="n">
-        <v>971</v>
+        <v>9874</v>
       </c>
       <c r="T57" t="n">
-        <v>998</v>
-      </c>
-      <c r="U57" t="n">
-        <v>-12</v>
-      </c>
-      <c r="V57" t="n">
-        <v>986</v>
-      </c>
-      <c r="W57" t="n">
-        <v>1034</v>
-      </c>
-      <c r="X57" t="n">
-        <v>1037</v>
-      </c>
+        <v>11672</v>
+      </c>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>automotive sales [member]</t>
+          <t>automotive leasing</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -3386,18 +3448,28 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
+      <c r="R58" t="n">
+        <v>297</v>
+      </c>
+      <c r="S58" t="n">
+        <v>332</v>
+      </c>
+      <c r="T58" t="n">
+        <v>385</v>
+      </c>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
+      <c r="W58" t="n">
+        <v>668</v>
+      </c>
+      <c r="X58" t="n">
+        <v>588</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>automotive leasing</t>
+          <t>total automotive revenues</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -3416,28 +3488,22 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="n">
-        <v>160</v>
-      </c>
-      <c r="S59" t="n">
-        <v>188</v>
-      </c>
-      <c r="T59" t="n">
-        <v>234</v>
-      </c>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="n">
-        <v>408</v>
+        <v>16861</v>
       </c>
       <c r="X59" t="n">
-        <v>368</v>
+        <v>14602</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>automotive sales</t>
+          <t>automotive regulatory credits [member]</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -3461,17 +3527,13 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
-      <c r="W60" t="n">
-        <v>10914</v>
-      </c>
-      <c r="X60" t="n">
-        <v>10153</v>
-      </c>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>total cost of revenues</t>
+          <t>total revenues</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -3491,13 +3553,13 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="n">
-        <v>6617</v>
+        <v>9002</v>
       </c>
       <c r="S61" t="n">
-        <v>7307</v>
+        <v>10206</v>
       </c>
       <c r="T61" t="n">
-        <v>8384</v>
+        <v>12057</v>
       </c>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
@@ -3507,7 +3569,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>automotive leasing [member]</t>
+          <t>cost of revenues</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -3532,122 +3594,112 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>diluted</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>165758</v>
-      </c>
-      <c r="C63" t="n">
-        <v>169146</v>
-      </c>
-      <c r="D63" t="n">
-        <v>169997</v>
-      </c>
-      <c r="E63" t="n">
-        <v>178196</v>
-      </c>
-      <c r="F63" t="n">
-        <v>-7671</v>
-      </c>
-      <c r="G63" t="n">
-        <v>170525</v>
-      </c>
-      <c r="H63" t="n">
-        <v>172989</v>
-      </c>
-      <c r="I63" t="n">
-        <v>176654</v>
-      </c>
-      <c r="J63" t="n">
-        <v>184</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-7</v>
-      </c>
-      <c r="L63" t="n">
-        <v>177</v>
-      </c>
-      <c r="M63" t="n">
-        <v>199</v>
-      </c>
-      <c r="N63" t="n">
-        <v>207</v>
-      </c>
-      <c r="O63" t="n">
-        <v>1105</v>
-      </c>
-      <c r="P63" t="n">
-        <v>-22</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>1083</v>
-      </c>
-      <c r="R63" t="n">
-        <v>1133</v>
-      </c>
-      <c r="S63" t="n">
-        <v>1119</v>
-      </c>
-      <c r="T63" t="n">
-        <v>1123</v>
-      </c>
-      <c r="U63" t="n">
-        <v>6</v>
-      </c>
-      <c r="V63" t="n">
-        <v>1129</v>
-      </c>
+          <t>automotive sales</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
       <c r="W63" t="n">
-        <v>1157</v>
+        <v>10914</v>
       </c>
       <c r="X63" t="n">
-        <v>1155</v>
+        <v>10153</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>revenues</t>
+          <t>cost of revenues</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>4405919</v>
+      </c>
+      <c r="F64" t="n">
+        <v>9279653</v>
+      </c>
+      <c r="G64" t="n">
+        <v>13685572</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2856209</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4253763</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4014</v>
+      </c>
+      <c r="K64" t="n">
+        <v>11925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>15939</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3699</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3714</v>
+      </c>
+      <c r="O64" t="n">
+        <v>5361</v>
+      </c>
+      <c r="P64" t="n">
+        <v>14335</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>19696</v>
+      </c>
+      <c r="R64" t="n">
+        <v>6457</v>
+      </c>
+      <c r="S64" t="n">
+        <v>7119</v>
+      </c>
+      <c r="T64" t="n">
+        <v>8150</v>
+      </c>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="X64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>total automotive cost of revenues</t>
+          <t>automotive leasing</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -3666,75 +3718,49 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
+      <c r="R65" t="n">
+        <v>160</v>
+      </c>
+      <c r="S65" t="n">
+        <v>188</v>
+      </c>
+      <c r="T65" t="n">
+        <v>234</v>
+      </c>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="n">
-        <v>11322</v>
+        <v>408</v>
       </c>
       <c r="X65" t="n">
-        <v>10521</v>
+        <v>368</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>revenues</t>
+          <t>automotive leasing [member]</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="n">
-        <v>5878305</v>
-      </c>
-      <c r="F66" t="n">
-        <v>11753217</v>
-      </c>
-      <c r="G66" t="n">
-        <v>17631522</v>
-      </c>
-      <c r="H66" t="n">
-        <v>3508741</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5168027</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5132</v>
-      </c>
-      <c r="K66" t="n">
-        <v>14820</v>
-      </c>
-      <c r="L66" t="n">
-        <v>19952</v>
-      </c>
-      <c r="M66" t="n">
-        <v>4893</v>
-      </c>
-      <c r="N66" t="n">
-        <v>4911</v>
-      </c>
-      <c r="O66" t="n">
-        <v>7346</v>
-      </c>
-      <c r="P66" t="n">
-        <v>18838</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>26184</v>
-      </c>
-      <c r="R66" t="n">
-        <v>8705</v>
-      </c>
-      <c r="S66" t="n">
-        <v>9874</v>
-      </c>
-      <c r="T66" t="n">
-        <v>11672</v>
-      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
@@ -3743,7 +3769,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>revenues</t>
+          <t>total automotive cost of revenues</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -3768,16 +3794,16 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="n">
-        <v>1279</v>
+        <v>11322</v>
       </c>
       <c r="X67" t="n">
-        <v>1466</v>
+        <v>10521</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>revenues</t>
+          <t>energy generation and storage [member]</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -3800,16 +3826,18 @@
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
-      <c r="V68" t="n">
-        <v>1642</v>
-      </c>
+      <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>cost of revenues</t>
+          <t>total cost of revenues</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -3828,22 +3856,24 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
+      <c r="R69" t="n">
+        <v>6617</v>
+      </c>
+      <c r="S69" t="n">
+        <v>7307</v>
+      </c>
+      <c r="T69" t="n">
+        <v>8384</v>
+      </c>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="X69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>automotive revenues [member]</t>
+          <t>revenues</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -3866,67 +3896,37 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
+      <c r="V70" t="n">
+        <v>1642</v>
+      </c>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>cost of revenues</t>
+          <t>automotive revenues [member]</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="n">
-        <v>4405919</v>
-      </c>
-      <c r="F71" t="n">
-        <v>9279653</v>
-      </c>
-      <c r="G71" t="n">
-        <v>13685572</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2856209</v>
-      </c>
-      <c r="I71" t="n">
-        <v>4253763</v>
-      </c>
-      <c r="J71" t="n">
-        <v>4014</v>
-      </c>
-      <c r="K71" t="n">
-        <v>11925</v>
-      </c>
-      <c r="L71" t="n">
-        <v>15939</v>
-      </c>
-      <c r="M71" t="n">
-        <v>3699</v>
-      </c>
-      <c r="N71" t="n">
-        <v>3714</v>
-      </c>
-      <c r="O71" t="n">
-        <v>5361</v>
-      </c>
-      <c r="P71" t="n">
-        <v>14335</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>19696</v>
-      </c>
-      <c r="R71" t="n">
-        <v>6457</v>
-      </c>
-      <c r="S71" t="n">
-        <v>7119</v>
-      </c>
-      <c r="T71" t="n">
-        <v>8150</v>
-      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
@@ -3935,7 +3935,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>total revenues</t>
+          <t>revenues</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -3954,19 +3954,19 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="n">
-        <v>494</v>
-      </c>
-      <c r="S72" t="n">
-        <v>801</v>
-      </c>
-      <c r="T72" t="n">
-        <v>806</v>
-      </c>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
+      <c r="V72" t="n">
+        <v>44125</v>
+      </c>
       <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3995,13 +3995,17 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
+      <c r="W73" t="n">
+        <v>616</v>
+      </c>
+      <c r="X73" t="n">
+        <v>866</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>energy generation and storage [member]</t>
+          <t>revenues</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -4026,11 +4030,7 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="X74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4059,19 +4059,15 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="n">
-        <v>44125</v>
+        <v>47232</v>
       </c>
       <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="X75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>revenues</t>
+          <t>total revenues</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -4090,56 +4086,84 @@
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
+      <c r="R76" t="n">
+        <v>494</v>
+      </c>
+      <c r="S76" t="n">
+        <v>801</v>
+      </c>
+      <c r="T76" t="n">
+        <v>806</v>
+      </c>
       <c r="U76" t="inlineStr"/>
-      <c r="V76" t="n">
-        <v>47232</v>
-      </c>
+      <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>total cost of revenues</t>
+          <t>cost of revenues</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="n">
-        <v>595</v>
-      </c>
-      <c r="S77" t="n">
-        <v>781</v>
-      </c>
-      <c r="T77" t="n">
-        <v>803</v>
-      </c>
+      <c r="E77" t="n">
+        <v>330554</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1034342</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1364896</v>
+      </c>
+      <c r="H77" t="n">
+        <v>316887</v>
+      </c>
+      <c r="I77" t="n">
+        <v>325523</v>
+      </c>
+      <c r="J77" t="n">
+        <v>314</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1027</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1341</v>
+      </c>
+      <c r="M77" t="n">
+        <v>282</v>
+      </c>
+      <c r="N77" t="n">
+        <v>349</v>
+      </c>
+      <c r="O77" t="n">
+        <v>558</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1418</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1976</v>
+      </c>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>services and other [member]</t>
+          <t>cost of revenues</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -4169,63 +4193,41 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>revenues</t>
+          <t>cost of revenues</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="n">
-        <v>399317</v>
-      </c>
-      <c r="F79" t="n">
-        <v>1155927</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1555244</v>
-      </c>
-      <c r="H79" t="n">
-        <v>324661</v>
-      </c>
-      <c r="I79" t="n">
-        <v>368208</v>
-      </c>
-      <c r="J79" t="n">
-        <v>402</v>
-      </c>
-      <c r="K79" t="n">
-        <v>1129</v>
-      </c>
-      <c r="L79" t="n">
-        <v>1531</v>
-      </c>
-      <c r="M79" t="n">
-        <v>293</v>
-      </c>
-      <c r="N79" t="n">
-        <v>370</v>
-      </c>
-      <c r="O79" t="n">
-        <v>579</v>
-      </c>
-      <c r="P79" t="n">
-        <v>1415</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>1994</v>
-      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
+      <c r="W79" t="n">
+        <v>688</v>
+      </c>
+      <c r="X79" t="n">
+        <v>769</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>cost of revenues</t>
+          <t>services and other [member]</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -4250,7 +4252,11 @@
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4261,35 +4267,57 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>399317</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1155927</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1555244</v>
+      </c>
+      <c r="H81" t="n">
+        <v>324661</v>
+      </c>
+      <c r="I81" t="n">
+        <v>368208</v>
+      </c>
+      <c r="J81" t="n">
+        <v>402</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1129</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1531</v>
+      </c>
+      <c r="M81" t="n">
+        <v>293</v>
+      </c>
+      <c r="N81" t="n">
+        <v>370</v>
+      </c>
+      <c r="O81" t="n">
+        <v>579</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1415</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1994</v>
+      </c>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
-      <c r="W81" t="n">
-        <v>616</v>
-      </c>
-      <c r="X81" t="n">
-        <v>866</v>
-      </c>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>cost of revenues</t>
+          <t>total cost of revenues</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -4308,24 +4336,24 @@
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
+      <c r="R82" t="n">
+        <v>595</v>
+      </c>
+      <c r="S82" t="n">
+        <v>781</v>
+      </c>
+      <c r="T82" t="n">
+        <v>803</v>
+      </c>
       <c r="U82" t="inlineStr"/>
-      <c r="V82" t="n">
-        <v>32415</v>
-      </c>
-      <c r="W82" t="n">
-        <v>1286</v>
-      </c>
-      <c r="X82" t="n">
-        <v>1410</v>
-      </c>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>services and other [member]</t>
+          <t>automotive leasing</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -4348,18 +4376,16 @@
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
+      <c r="V83" t="n">
+        <v>978</v>
+      </c>
       <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="X83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>automotive leasing</t>
+          <t>services and other [member]</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -4382,65 +4408,39 @@
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
-      <c r="V84" t="n">
-        <v>978</v>
-      </c>
+      <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>cost of revenues</t>
+          <t>revenues</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="n">
-        <v>330554</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1034342</v>
-      </c>
-      <c r="G85" t="n">
-        <v>1364896</v>
-      </c>
-      <c r="H85" t="n">
-        <v>316887</v>
-      </c>
-      <c r="I85" t="n">
-        <v>325523</v>
-      </c>
-      <c r="J85" t="n">
-        <v>314</v>
-      </c>
-      <c r="K85" t="n">
-        <v>1027</v>
-      </c>
-      <c r="L85" t="n">
-        <v>1341</v>
-      </c>
-      <c r="M85" t="n">
-        <v>282</v>
-      </c>
-      <c r="N85" t="n">
-        <v>349</v>
-      </c>
-      <c r="O85" t="n">
-        <v>558</v>
-      </c>
-      <c r="P85" t="n">
-        <v>1418</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>1976</v>
-      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
+      <c r="V85" t="n">
+        <v>1465</v>
+      </c>
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>revenues</t>
+          <t>total cost of revenues</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -4470,24 +4470,20 @@
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="n">
-        <v>893</v>
-      </c>
-      <c r="S86" t="n">
-        <v>951</v>
-      </c>
-      <c r="T86" t="n">
-        <v>894</v>
-      </c>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
+      <c r="V86" t="n">
+        <v>33393</v>
+      </c>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>total cost of revenues</t>
+          <t>revenues</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -4510,16 +4506,18 @@
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
-      <c r="V87" t="n">
-        <v>33393</v>
-      </c>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="n">
+        <v>1279</v>
+      </c>
+      <c r="X87" t="n">
+        <v>1466</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>total cost of revenues</t>
+          <t>cost of revenues</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
@@ -4538,24 +4536,22 @@
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="n">
-        <v>962</v>
-      </c>
-      <c r="S88" t="n">
-        <v>986</v>
-      </c>
-      <c r="T88" t="n">
-        <v>910</v>
-      </c>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>energy generation and storage [member]</t>
+          <t>revenues</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -4574,9 +4570,15 @@
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
+      <c r="R89" t="n">
+        <v>893</v>
+      </c>
+      <c r="S89" t="n">
+        <v>951</v>
+      </c>
+      <c r="T89" t="n">
+        <v>894</v>
+      </c>
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr"/>
       <c r="W89" t="inlineStr"/>
@@ -4585,7 +4587,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>revenues</t>
+          <t>energy generation and storage [member]</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -4615,7 +4617,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>automotive segment [member]</t>
+          <t>cost of revenues</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -4638,9 +4640,15 @@
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
+      <c r="V91" t="n">
+        <v>32415</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1286</v>
+      </c>
+      <c r="X91" t="n">
+        <v>1410</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4668,9 +4676,7 @@
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
-      <c r="V92" t="n">
-        <v>2789</v>
-      </c>
+      <c r="V92" t="inlineStr"/>
       <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr"/>
     </row>
@@ -4700,14 +4706,16 @@
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
+      <c r="V93" t="n">
+        <v>2789</v>
+      </c>
       <c r="W93" t="inlineStr"/>
       <c r="X93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>total revenues</t>
+          <t>total cost of revenues</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -4727,13 +4735,13 @@
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="n">
-        <v>9895</v>
+        <v>962</v>
       </c>
       <c r="S94" t="n">
-        <v>11157</v>
+        <v>986</v>
       </c>
       <c r="T94" t="n">
-        <v>12951</v>
+        <v>910</v>
       </c>
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr"/>
@@ -4743,7 +4751,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>cost of revenues</t>
+          <t>automotive segment [member]</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
@@ -4796,9 +4804,7 @@
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
-      <c r="V96" t="n">
-        <v>2918</v>
-      </c>
+      <c r="V96" t="inlineStr"/>
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr"/>
     </row>
@@ -4828,18 +4834,16 @@
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="n">
-        <v>688</v>
-      </c>
-      <c r="X97" t="n">
-        <v>769</v>
-      </c>
+      <c r="V97" t="n">
+        <v>2918</v>
+      </c>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>gross profit</t>
+          <t>revenues</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
@@ -4858,15 +4862,9 @@
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="n">
-        <v>2316</v>
-      </c>
-      <c r="S98" t="n">
-        <v>2864</v>
-      </c>
-      <c r="T98" t="n">
-        <v>3657</v>
-      </c>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr"/>
       <c r="W98" t="inlineStr"/>
@@ -4905,7 +4903,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>energy generation and storage segment [member]</t>
+          <t>total revenues</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
@@ -4924,9 +4922,15 @@
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
+      <c r="R100" t="n">
+        <v>9895</v>
+      </c>
+      <c r="S100" t="n">
+        <v>11157</v>
+      </c>
+      <c r="T100" t="n">
+        <v>12951</v>
+      </c>
       <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr"/>
       <c r="W100" t="inlineStr"/>
@@ -4965,7 +4969,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>revenues</t>
+          <t>gross profit</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
@@ -4984,13 +4988,17 @@
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
+      <c r="R102" t="n">
+        <v>2316</v>
+      </c>
+      <c r="S102" t="n">
+        <v>2864</v>
+      </c>
+      <c r="T102" t="n">
+        <v>3657</v>
+      </c>
       <c r="U102" t="inlineStr"/>
-      <c r="V102" t="n">
-        <v>3802</v>
-      </c>
+      <c r="V102" t="inlineStr"/>
       <c r="W102" t="inlineStr"/>
       <c r="X102" t="inlineStr"/>
     </row>
@@ -5021,19 +5029,15 @@
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr"/>
       <c r="V103" t="n">
-        <v>1465</v>
+        <v>3802</v>
       </c>
       <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="X103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>total revenues</t>
+          <t>energy generation and storage segment [member]</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -5052,15 +5056,9 @@
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="n">
-        <v>494</v>
-      </c>
-      <c r="S104" t="n">
-        <v>801</v>
-      </c>
-      <c r="T104" t="n">
-        <v>806</v>
-      </c>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr"/>
       <c r="V104" t="inlineStr"/>
       <c r="W104" t="inlineStr"/>
@@ -5122,18 +5120,16 @@
       <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr"/>
-      <c r="V106" t="inlineStr"/>
+      <c r="V106" t="n">
+        <v>3906</v>
+      </c>
       <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="X106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>cost of revenues</t>
+          <t>total revenues</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
@@ -5152,13 +5148,17 @@
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr"/>
+      <c r="R107" t="n">
+        <v>494</v>
+      </c>
+      <c r="S107" t="n">
+        <v>801</v>
+      </c>
+      <c r="T107" t="n">
+        <v>806</v>
+      </c>
       <c r="U107" t="inlineStr"/>
-      <c r="V107" t="n">
-        <v>3906</v>
-      </c>
+      <c r="V107" t="inlineStr"/>
       <c r="W107" t="inlineStr"/>
       <c r="X107" t="inlineStr"/>
     </row>
@@ -6174,18 +6174,24 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>automotive sales</t>
+          <t>automotive leasing</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2091397</v>
+        <v>104496</v>
       </c>
       <c r="E11" t="n">
-        <v>2529739</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+        <v>136915</v>
+      </c>
+      <c r="F11" t="n">
+        <v>119283</v>
+      </c>
+      <c r="G11" t="n">
+        <v>369142</v>
+      </c>
+      <c r="H11" t="n">
+        <v>488425</v>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>total cost of revenues</t>
@@ -6269,24 +6275,18 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>automotive leasing</t>
+          <t>automotive sales</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>104496</v>
+        <v>2091397</v>
       </c>
       <c r="E12" t="n">
-        <v>136915</v>
-      </c>
-      <c r="F12" t="n">
-        <v>119283</v>
-      </c>
-      <c r="G12" t="n">
-        <v>369142</v>
-      </c>
-      <c r="H12" t="n">
-        <v>488425</v>
-      </c>
+        <v>2529739</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
           <t>gross profit</t>
@@ -6451,18 +6451,24 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>energy generation and storage</t>
+          <t>services and other</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>375363</v>
+        <v>380969</v>
       </c>
       <c r="E14" t="n">
-        <v>330273</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+        <v>386374</v>
+      </c>
+      <c r="F14" t="n">
+        <v>444992</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1435362</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1880354</v>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>research and development</t>
@@ -6546,23 +6552,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>services and other</t>
+          <t>total cost of revenues</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>380969</v>
+        <v>2952225</v>
       </c>
       <c r="E15" t="n">
-        <v>386374</v>
+        <v>3383301</v>
       </c>
       <c r="F15" t="n">
-        <v>444992</v>
+        <v>5300748</v>
       </c>
       <c r="G15" t="n">
-        <v>1435362</v>
+        <v>12118499</v>
       </c>
       <c r="H15" t="n">
-        <v>1880354</v>
+        <v>17419247</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -6643,23 +6649,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>total cost of revenues</t>
+          <t>gross profit</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2952225</v>
+        <v>456526</v>
       </c>
       <c r="E16" t="n">
-        <v>3383301</v>
+        <v>618930</v>
       </c>
       <c r="F16" t="n">
-        <v>5300748</v>
+        <v>1523665</v>
       </c>
       <c r="G16" t="n">
-        <v>12118499</v>
+        <v>2518356</v>
       </c>
       <c r="H16" t="n">
-        <v>17419247</v>
+        <v>4042021</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -6720,24 +6726,18 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>gross profit</t>
+          <t>energy generation and storage</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>456526</v>
+        <v>375363</v>
       </c>
       <c r="E17" t="n">
-        <v>618930</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1523665</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2518356</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4042021</v>
-      </c>
+        <v>330273</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
           <t>total operating expenses</t>
@@ -7102,16 +7102,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>income from operations</t>
+          <t>restructuring and other</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>103434</v>
+      </c>
       <c r="F21" t="n">
-        <v>416757</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+        <v>26184</v>
+      </c>
+      <c r="G21" t="n">
+        <v>109049</v>
+      </c>
+      <c r="H21" t="n">
+        <v>135233</v>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>interest expense</t>
@@ -7193,21 +7199,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>restructuring and other</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>total operating expenses</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1053500</v>
+      </c>
       <c r="E22" t="n">
-        <v>103434</v>
+        <v>1240322</v>
       </c>
       <c r="F22" t="n">
-        <v>26184</v>
+        <v>1106908</v>
       </c>
       <c r="G22" t="n">
-        <v>109049</v>
+        <v>3323186</v>
       </c>
       <c r="H22" t="n">
-        <v>135233</v>
+        <v>4430094</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -7270,23 +7278,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>total operating expenses</t>
+          <t>loss from operations</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1053500</v>
+        <v>-596974</v>
       </c>
       <c r="E23" t="n">
-        <v>1240322</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1106908</v>
-      </c>
-      <c r="G23" t="n">
-        <v>3323186</v>
-      </c>
+        <v>-621392</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>4430094</v>
+        <v>-388073</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -7322,14 +7326,20 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>net income per share of common stock attributable to common stockholders</t>
+          <t>net income used in computing net income per share of common stock</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
+      <c r="X23" t="n">
+        <v>1618</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>3906</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>5524</v>
+      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>diluted</t>
@@ -7353,20 +7363,16 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>loss from operations</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>-596974</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-621392</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
+          <t>income from operations</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>416757</v>
+      </c>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="n">
-        <v>-388073</v>
-      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
           <t>other income, net</t>
@@ -7401,20 +7407,14 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>net income used in computing net income per share of common stock</t>
+          <t>net income per share of common stock attributable to common stockholders</t>
         </is>
       </c>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
-      <c r="X24" t="n">
-        <v>1618</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>3906</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>5524</v>
-      </c>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr">
         <is>
           <t>weighted average shares used in computing net income per share of common stock</t>
@@ -7531,19 +7531,23 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>other income , net</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+          <t>interest expense</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>-149546</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-163582</v>
+      </c>
       <c r="F26" t="n">
-        <v>22876</v>
+        <v>-175220</v>
       </c>
       <c r="G26" t="n">
-        <v>-1010</v>
+        <v>-487851</v>
       </c>
       <c r="H26" t="n">
-        <v>21866</v>
+        <v>-663071</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -7624,23 +7628,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>interest expense</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>-149546</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-163582</v>
-      </c>
+          <t>other income , net</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>-175220</v>
+        <v>22876</v>
       </c>
       <c r="G27" t="n">
-        <v>-487851</v>
+        <v>-1010</v>
       </c>
       <c r="H27" t="n">
-        <v>-663071</v>
+        <v>21866</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -7800,16 +7800,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>other expense, net</t>
+          <t>loss before income taxes</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-37716</v>
-      </c>
-      <c r="E29" t="inlineStr"/>
+        <v>-779022</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-728999</v>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>-1004745</v>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>net income</t>
@@ -7824,14 +7828,20 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>net income per share of common stock attributable to common stockholders</t>
+          <t>net income used in computing net income per share of common stock</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
+      <c r="R29" t="n">
+        <v>300</v>
+      </c>
+      <c r="S29" t="n">
+        <v>390</v>
+      </c>
+      <c r="T29" t="n">
+        <v>690</v>
+      </c>
       <c r="U29" t="inlineStr">
         <is>
           <t>diluted</t>
@@ -7873,14 +7883,14 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>net income</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>other expense, net</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>-37716</v>
+      </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="n">
-        <v>254673</v>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
@@ -7905,23 +7915,17 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>net income used in computing net income per share of common stock</t>
+          <t>net income per share of common stock attributable to common stockholders</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="n">
-        <v>300</v>
-      </c>
-      <c r="S30" t="n">
-        <v>390</v>
-      </c>
-      <c r="T30" t="n">
-        <v>690</v>
-      </c>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>automobiles [member]</t>
+          <t>automotive sales [member]</t>
         </is>
       </c>
       <c r="V30" t="inlineStr"/>
@@ -7952,16 +7956,24 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>other income, net</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>provision for income taxes</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>5605</v>
+      </c>
       <c r="E31" t="n">
-        <v>50911</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+        <v>13707</v>
+      </c>
+      <c r="F31" t="n">
+        <v>16647</v>
+      </c>
+      <c r="G31" t="n">
+        <v>41190</v>
+      </c>
+      <c r="H31" t="n">
+        <v>57837</v>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>net loss attributable to common stockholders</t>
@@ -8000,7 +8012,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>revenues</t>
+          <t>automobiles [member]</t>
         </is>
       </c>
       <c r="V31" t="inlineStr"/>
@@ -8031,20 +8043,16 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>loss before income taxes</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>-779022</v>
-      </c>
-      <c r="E32" t="n">
-        <v>-728999</v>
-      </c>
-      <c r="F32" t="inlineStr"/>
+          <t>net income</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>254673</v>
+      </c>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="n">
-        <v>-1004745</v>
-      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
           <t>net income attributable to common stockholders</t>
@@ -8082,21 +8090,11 @@
           <t>revenues</t>
         </is>
       </c>
-      <c r="V32" t="n">
-        <v>8705</v>
-      </c>
-      <c r="W32" t="n">
-        <v>9874</v>
-      </c>
-      <c r="X32" t="n">
-        <v>11672</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>32453</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>44125</v>
-      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr">
         <is>
           <t>total automotive revenues</t>
@@ -8118,24 +8116,16 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>provision for income taxes</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>5605</v>
-      </c>
+          <t>other income, net</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>13707</v>
-      </c>
-      <c r="F33" t="n">
-        <v>16647</v>
-      </c>
-      <c r="G33" t="n">
-        <v>41190</v>
-      </c>
-      <c r="H33" t="n">
-        <v>57837</v>
-      </c>
+        <v>50911</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
           <t>net loss per share of common stock attributable to common stockholders</t>
@@ -8158,14 +8148,24 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>automotive sales [member]</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="V33" t="n">
+        <v>8705</v>
+      </c>
+      <c r="W33" t="n">
+        <v>9874</v>
+      </c>
+      <c r="X33" t="n">
+        <v>11672</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>32453</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>44125</v>
+      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>cost of revenues</t>
@@ -8235,18 +8235,12 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>automotive leasing</t>
-        </is>
-      </c>
-      <c r="V34" t="n">
-        <v>297</v>
-      </c>
-      <c r="W34" t="n">
-        <v>332</v>
-      </c>
-      <c r="X34" t="n">
-        <v>385</v>
-      </c>
+          <t>automotive regulatory credits [member]</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr">
@@ -8272,16 +8266,24 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>net income attributable to common stockholders</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+          <t>net loss attributable to noncontrolling interests and redeemable noncontrolling interests in subsidiaries</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>-75076</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-25167</v>
+      </c>
       <c r="F35" t="n">
-        <v>311516</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+        <v>-56843</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-29648</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-86491</v>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
           <t>basic</t>
@@ -8324,17 +8326,17 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>total revenues</t>
+          <t>automotive leasing</t>
         </is>
       </c>
       <c r="V35" t="n">
-        <v>9002</v>
+        <v>297</v>
       </c>
       <c r="W35" t="n">
-        <v>10206</v>
+        <v>332</v>
       </c>
       <c r="X35" t="n">
-        <v>12057</v>
+        <v>385</v>
       </c>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
@@ -8355,23 +8357,19 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>net loss attributable to noncontrolling interests and redeemable noncontrolling interests in subsidiaries</t>
+          <t>net loss attributable to common stockholders</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-75076</v>
+        <v>-709551</v>
       </c>
       <c r="E36" t="n">
-        <v>-25167</v>
-      </c>
-      <c r="F36" t="n">
-        <v>-56843</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-29648</v>
-      </c>
+        <v>-717539</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>-86491</v>
+        <v>-976091</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -8405,7 +8403,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>automotive regulatory credits [member]</t>
+          <t>revenues</t>
         </is>
       </c>
       <c r="V36" t="inlineStr"/>
@@ -8430,12 +8428,14 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>net income per share of common stock attributable to common stockholders, basic and diluted</t>
+          <t>net income attributable to common stockholders</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>311516</v>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
@@ -8460,12 +8460,18 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>cost of revenues</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
+          <t>total revenues</t>
+        </is>
+      </c>
+      <c r="V37" t="n">
+        <v>9002</v>
+      </c>
+      <c r="W37" t="n">
+        <v>10206</v>
+      </c>
+      <c r="X37" t="n">
+        <v>12057</v>
+      </c>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr">
@@ -8485,20 +8491,14 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>net loss attributable to common stockholders</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>-709551</v>
-      </c>
-      <c r="E38" t="n">
-        <v>-717539</v>
-      </c>
+          <t>net loss per share of common stock attributable to common stockholders</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>-976091</v>
-      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
           <t>weighted average shares used in computing net loss per share of common stock</t>
@@ -8538,7 +8538,9 @@
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
+      <c r="Z38" t="n">
+        <v>1465</v>
+      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>revenues</t>
@@ -8556,7 +8558,7 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>net loss per share of common stock attributable to common stockholders</t>
+          <t>net income per share of common stock attributable to common stockholders, basic and diluted</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -8596,24 +8598,14 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>cost of revenues</t>
-        </is>
-      </c>
-      <c r="V39" t="n">
-        <v>6457</v>
-      </c>
-      <c r="W39" t="n">
-        <v>7119</v>
-      </c>
-      <c r="X39" t="n">
-        <v>8150</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>24265</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>32415</v>
-      </c>
+          <t>automotive leasing [member]</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr">
         <is>
           <t>revenues</t>
@@ -8631,14 +8623,24 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>weighted average shares used in computing net income per share of common stock</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>-4.19</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-4.22</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-7.54</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-5.72</v>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
           <t>diluted</t>
@@ -8681,24 +8683,14 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>automotive leasing</t>
-        </is>
-      </c>
-      <c r="V40" t="n">
-        <v>160</v>
-      </c>
-      <c r="W40" t="n">
-        <v>188</v>
-      </c>
-      <c r="X40" t="n">
-        <v>234</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>744</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>978</v>
-      </c>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr">
         <is>
           <t>cost of revenues</t>
@@ -8716,7 +8708,7 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>diluted</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -8726,10 +8718,10 @@
         <v>-4.22</v>
       </c>
       <c r="F41" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.54</v>
+        <v>-7.47</v>
       </c>
       <c r="H41" t="n">
         <v>-5.72</v>
@@ -8764,7 +8756,7 @@
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="n">
-        <v>1465</v>
+        <v>1642</v>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
@@ -8783,24 +8775,14 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>diluted</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>-4.19</v>
-      </c>
-      <c r="E42" t="n">
-        <v>-4.22</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-7.47</v>
-      </c>
-      <c r="H42" t="n">
-        <v>-5.72</v>
-      </c>
+          <t>weighted average shares used in computing net income per share of common stock</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
           <t>revenues</t>
@@ -8823,7 +8805,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>automotive leasing [member]</t>
+          <t>automotive revenues [member]</t>
         </is>
       </c>
       <c r="V42" t="inlineStr"/>
@@ -8898,24 +8880,14 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>total cost of revenues</t>
-        </is>
-      </c>
-      <c r="V43" t="n">
-        <v>6617</v>
-      </c>
-      <c r="W43" t="n">
-        <v>7307</v>
-      </c>
-      <c r="X43" t="n">
-        <v>8384</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>25009</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>33393</v>
-      </c>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr">
         <is>
           <t>revenues</t>
@@ -8980,7 +8952,9 @@
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
+      <c r="Z44" t="n">
+        <v>47232</v>
+      </c>
       <c r="AA44" t="inlineStr">
         <is>
           <t>revenues</t>
@@ -8998,14 +8972,24 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>automotive sales [member]</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+          <t>diluted</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>169146</v>
+      </c>
+      <c r="E45" t="n">
+        <v>169997</v>
+      </c>
+      <c r="F45" t="n">
+        <v>178196</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-7671</v>
+      </c>
+      <c r="H45" t="n">
+        <v>170525</v>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>cost of revenues</t>
@@ -9048,12 +9032,18 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>energy generation and storage [member]</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
+          <t>total revenues</t>
+        </is>
+      </c>
+      <c r="V45" t="n">
+        <v>494</v>
+      </c>
+      <c r="W45" t="n">
+        <v>801</v>
+      </c>
+      <c r="X45" t="n">
+        <v>806</v>
+      </c>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr">
@@ -9073,24 +9063,14 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>diluted</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>169146</v>
-      </c>
-      <c r="E46" t="n">
-        <v>169997</v>
-      </c>
-      <c r="F46" t="n">
-        <v>178196</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-7671</v>
-      </c>
-      <c r="H46" t="n">
-        <v>170525</v>
-      </c>
+          <t>automotive sales [member]</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
           <t>energy generation and storage [member]</t>
@@ -9109,16 +9089,14 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>revenues</t>
+          <t>cost of revenues</t>
         </is>
       </c>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="n">
-        <v>1642</v>
-      </c>
+      <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr">
         <is>
           <t>cost of revenues</t>
@@ -9162,7 +9140,7 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>revenues</t>
+          <t>cost of revenues</t>
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
@@ -9221,14 +9199,24 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>automotive revenues [member]</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="V48" t="n">
+        <v>6457</v>
+      </c>
+      <c r="W48" t="n">
+        <v>7119</v>
+      </c>
+      <c r="X48" t="n">
+        <v>8150</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>24265</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>32415</v>
+      </c>
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
@@ -9264,17 +9252,17 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>total revenues</t>
+          <t>total cost of revenues</t>
         </is>
       </c>
       <c r="V49" t="n">
-        <v>494</v>
+        <v>595</v>
       </c>
       <c r="W49" t="n">
-        <v>801</v>
+        <v>781</v>
       </c>
       <c r="X49" t="n">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
@@ -9329,7 +9317,7 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>revenues</t>
+          <t>services and other [member]</t>
         </is>
       </c>
       <c r="V50" t="inlineStr"/>
@@ -9368,14 +9356,24 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>cost of revenues</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
+          <t>automotive leasing</t>
+        </is>
+      </c>
+      <c r="V51" t="n">
+        <v>160</v>
+      </c>
+      <c r="W51" t="n">
+        <v>188</v>
+      </c>
+      <c r="X51" t="n">
+        <v>234</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>744</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>978</v>
+      </c>
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
@@ -9407,15 +9405,23 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>revenues</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
+          <t>total cost of revenues</t>
+        </is>
+      </c>
+      <c r="V52" t="n">
+        <v>6617</v>
+      </c>
+      <c r="W52" t="n">
+        <v>7307</v>
+      </c>
+      <c r="X52" t="n">
+        <v>8384</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>25009</v>
+      </c>
       <c r="Z52" t="n">
-        <v>47232</v>
+        <v>33393</v>
       </c>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
@@ -9454,18 +9460,12 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>total cost of revenues</t>
-        </is>
-      </c>
-      <c r="V53" t="n">
-        <v>595</v>
-      </c>
-      <c r="W53" t="n">
-        <v>781</v>
-      </c>
-      <c r="X53" t="n">
-        <v>803</v>
-      </c>
+          <t>energy generation and storage [member]</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
@@ -9499,12 +9499,18 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>services and other [member]</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="V54" t="n">
+        <v>893</v>
+      </c>
+      <c r="W54" t="n">
+        <v>951</v>
+      </c>
+      <c r="X54" t="n">
+        <v>894</v>
+      </c>
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
@@ -9551,9 +9557,7 @@
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="n">
-        <v>2789</v>
-      </c>
+      <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
@@ -9581,17 +9585,17 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>revenues</t>
+          <t>total cost of revenues</t>
         </is>
       </c>
       <c r="V56" t="n">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="W56" t="n">
-        <v>951</v>
+        <v>986</v>
       </c>
       <c r="X56" t="n">
-        <v>894</v>
+        <v>910</v>
       </c>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
@@ -9622,14 +9626,16 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>cost of revenues</t>
+          <t>revenues</t>
         </is>
       </c>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
+      <c r="Z57" t="n">
+        <v>2789</v>
+      </c>
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
@@ -9657,18 +9663,12 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>total cost of revenues</t>
-        </is>
-      </c>
-      <c r="V58" t="n">
-        <v>962</v>
-      </c>
-      <c r="W58" t="n">
-        <v>986</v>
-      </c>
-      <c r="X58" t="n">
-        <v>910</v>
-      </c>
+          <t>automotive segment [member]</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
@@ -9698,7 +9698,7 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>automotive segment [member]</t>
+          <t>cost of revenues</t>
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
@@ -9768,20 +9768,16 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>total revenues</t>
-        </is>
-      </c>
-      <c r="V61" t="n">
-        <v>9895</v>
-      </c>
-      <c r="W61" t="n">
-        <v>11157</v>
-      </c>
-      <c r="X61" t="n">
-        <v>12951</v>
-      </c>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
+      <c r="Z61" t="n">
+        <v>2918</v>
+      </c>
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
       <c r="AC61" t="inlineStr"/>
@@ -9809,16 +9805,20 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>cost of revenues</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
+          <t>total revenues</t>
+        </is>
+      </c>
+      <c r="V62" t="n">
+        <v>9895</v>
+      </c>
+      <c r="W62" t="n">
+        <v>11157</v>
+      </c>
+      <c r="X62" t="n">
+        <v>12951</v>
+      </c>
       <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="n">
-        <v>2918</v>
-      </c>
+      <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr"/>
       <c r="AC62" t="inlineStr"/>
@@ -9881,18 +9881,12 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>gross profit</t>
-        </is>
-      </c>
-      <c r="V64" t="n">
-        <v>2316</v>
-      </c>
-      <c r="W64" t="n">
-        <v>2864</v>
-      </c>
-      <c r="X64" t="n">
-        <v>3657</v>
-      </c>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
@@ -9922,12 +9916,18 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>energy generation and storage segment [member]</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
+          <t>gross profit</t>
+        </is>
+      </c>
+      <c r="V65" t="n">
+        <v>2316</v>
+      </c>
+      <c r="W65" t="n">
+        <v>2864</v>
+      </c>
+      <c r="X65" t="n">
+        <v>3657</v>
+      </c>
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
@@ -9964,7 +9964,9 @@
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
+      <c r="Z66" t="n">
+        <v>3802</v>
+      </c>
       <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr"/>
@@ -9992,16 +9994,14 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>revenues</t>
+          <t>energy generation and storage segment [member]</t>
         </is>
       </c>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="n">
-        <v>3802</v>
-      </c>
+      <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
@@ -10029,18 +10029,12 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>total revenues</t>
-        </is>
-      </c>
-      <c r="V68" t="n">
-        <v>494</v>
-      </c>
-      <c r="W68" t="n">
-        <v>801</v>
-      </c>
-      <c r="X68" t="n">
-        <v>806</v>
-      </c>
+          <t>cost of revenues</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
@@ -10077,7 +10071,9 @@
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
+      <c r="Z69" t="n">
+        <v>3906</v>
+      </c>
       <c r="AA69" t="inlineStr"/>
       <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="inlineStr"/>
@@ -10105,16 +10101,20 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>cost of revenues</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
+          <t>total revenues</t>
+        </is>
+      </c>
+      <c r="V70" t="n">
+        <v>494</v>
+      </c>
+      <c r="W70" t="n">
+        <v>801</v>
+      </c>
+      <c r="X70" t="n">
+        <v>806</v>
+      </c>
       <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="n">
-        <v>3906</v>
-      </c>
+      <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr"/>
